--- a/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
+++ b/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-Canada - Clean\InputData\trans\BNVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\BNVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="672" documentId="11_FACBBA7829B73184CDA2BE1D97E0DF2AA138A21D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF34F387-04C7-42BC-B4DB-57F79B9B46DC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F3402-951A-4380-934E-91CFC57B13C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" tabRatio="762" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="762" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3007,7 +3007,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3264,7 +3264,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3312,9 +3312,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3686,19 +3683,19 @@
       <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3706,486 +3703,486 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="57">
+    <row r="39" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <v>2012</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="28.5">
+    <row r="45" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <v>2014</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.5">
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.5">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0.97099999999999997</v>
       </c>
@@ -4193,7 +4190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0.98699999999999999</v>
       </c>
@@ -4201,7 +4198,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0.95299999999999996</v>
       </c>
@@ -4209,7 +4206,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="18">
         <v>0.97099999999999997</v>
       </c>
@@ -4217,17 +4214,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1.0307117464753821</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1.302157</v>
       </c>
@@ -4243,12 +4240,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>1/1.18</f>
         <v>0.84745762711864414</v>
@@ -4257,22 +4254,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -4306,12 +4303,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -4415,7 +4412,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -4521,7 +4518,7 @@
         <v>4166667</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -4627,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -4733,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -4839,7 +4836,7 @@
         <v>2245137.0389999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -4945,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -5051,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -5178,12 +5175,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -5287,7 +5284,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -5393,7 +5390,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -5499,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -5711,7 +5708,7 @@
         <v>2694164.4470000002</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -5817,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -6029,7 +6026,7 @@
         <v>5497544</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
     </row>
   </sheetData>
@@ -6053,14 +6050,14 @@
       <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -6164,7 +6161,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -6270,7 +6267,7 @@
         <v>55457</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -6376,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -6482,7 +6479,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -6588,7 +6585,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -6694,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -6800,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -6906,7 +6903,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
     </row>
   </sheetData>
@@ -6930,119 +6927,119 @@
       <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
-      <c r="B1" s="37">
+      <c r="B1" s="33">
         <v>2018</v>
       </c>
-      <c r="C1" s="37">
+      <c r="C1" s="33">
         <v>2019</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="22">
         <v>2020</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="22">
         <v>2021</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="22">
         <v>2022</v>
       </c>
-      <c r="G1" s="38">
+      <c r="G1" s="22">
         <v>2023</v>
       </c>
-      <c r="H1" s="38">
+      <c r="H1" s="22">
         <v>2024</v>
       </c>
-      <c r="I1" s="38">
+      <c r="I1" s="22">
         <v>2025</v>
       </c>
-      <c r="J1" s="38">
+      <c r="J1" s="22">
         <v>2026</v>
       </c>
-      <c r="K1" s="38">
+      <c r="K1" s="22">
         <v>2027</v>
       </c>
-      <c r="L1" s="38">
+      <c r="L1" s="22">
         <v>2028</v>
       </c>
-      <c r="M1" s="38">
+      <c r="M1" s="22">
         <v>2029</v>
       </c>
-      <c r="N1" s="38">
+      <c r="N1" s="22">
         <v>2030</v>
       </c>
-      <c r="O1" s="38">
+      <c r="O1" s="22">
         <v>2031</v>
       </c>
-      <c r="P1" s="38">
+      <c r="P1" s="22">
         <v>2032</v>
       </c>
-      <c r="Q1" s="38">
+      <c r="Q1" s="22">
         <v>2033</v>
       </c>
-      <c r="R1" s="38">
+      <c r="R1" s="22">
         <v>2034</v>
       </c>
-      <c r="S1" s="38">
+      <c r="S1" s="22">
         <v>2035</v>
       </c>
-      <c r="T1" s="38">
+      <c r="T1" s="22">
         <v>2036</v>
       </c>
-      <c r="U1" s="38">
+      <c r="U1" s="22">
         <v>2037</v>
       </c>
-      <c r="V1" s="38">
+      <c r="V1" s="22">
         <v>2038</v>
       </c>
-      <c r="W1" s="38">
+      <c r="W1" s="22">
         <v>2039</v>
       </c>
-      <c r="X1" s="38">
+      <c r="X1" s="22">
         <v>2040</v>
       </c>
-      <c r="Y1" s="38">
+      <c r="Y1" s="22">
         <v>2041</v>
       </c>
-      <c r="Z1" s="38">
+      <c r="Z1" s="22">
         <v>2042</v>
       </c>
-      <c r="AA1" s="38">
+      <c r="AA1" s="22">
         <v>2043</v>
       </c>
-      <c r="AB1" s="38">
+      <c r="AB1" s="22">
         <v>2044</v>
       </c>
-      <c r="AC1" s="38">
+      <c r="AC1" s="22">
         <v>2045</v>
       </c>
-      <c r="AD1" s="38">
+      <c r="AD1" s="22">
         <v>2046</v>
       </c>
-      <c r="AE1" s="38">
+      <c r="AE1" s="22">
         <v>2047</v>
       </c>
-      <c r="AF1" s="38">
+      <c r="AF1" s="22">
         <v>2048</v>
       </c>
-      <c r="AG1" s="38">
+      <c r="AG1" s="22">
         <v>2049</v>
       </c>
-      <c r="AH1" s="38">
+      <c r="AH1" s="22">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
       <c r="B2" s="36" cm="1">
@@ -7053,102 +7050,102 @@
         <f t="array" ref="C2">TREND($D2:$H2,$D$1:$H$1,C$1)</f>
         <v>18485583</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="22">
         <v>18485583</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="22">
         <v>18485583</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="22">
         <v>18485583</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="22">
         <v>18485583</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="22">
         <v>18485583</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="22">
         <v>18485583</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="22">
         <v>18485583</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="22">
         <v>18485583</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="22">
         <v>18485583</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="22">
         <v>18485583</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="22">
         <v>18485583</v>
       </c>
-      <c r="O2" s="38">
+      <c r="O2" s="22">
         <v>18485583</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="22">
         <v>18485583</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="22">
         <v>18485583</v>
       </c>
-      <c r="R2" s="38">
+      <c r="R2" s="22">
         <v>18485583</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="22">
         <v>18485583</v>
       </c>
-      <c r="T2" s="38">
+      <c r="T2" s="22">
         <v>18485583</v>
       </c>
-      <c r="U2" s="38">
+      <c r="U2" s="22">
         <v>18485583</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="22">
         <v>18485583</v>
       </c>
-      <c r="W2" s="38">
+      <c r="W2" s="22">
         <v>18485583</v>
       </c>
-      <c r="X2" s="38">
+      <c r="X2" s="22">
         <v>18485583</v>
       </c>
-      <c r="Y2" s="38">
+      <c r="Y2" s="22">
         <v>18485583</v>
       </c>
-      <c r="Z2" s="38">
+      <c r="Z2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AA2" s="38">
+      <c r="AA2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AB2" s="38">
+      <c r="AB2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AC2" s="38">
+      <c r="AC2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AD2" s="38">
+      <c r="AD2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AE2" s="38">
+      <c r="AE2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AF2" s="38">
+      <c r="AF2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AG2" s="38">
+      <c r="AG2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AH2" s="38">
+      <c r="AH2" s="22">
         <v>18485583</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
       <c r="B3" s="36" cm="1">
@@ -7159,102 +7156,102 @@
         <f t="array" ref="C3">TREND($D3:$H3,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="38">
-        <v>0</v>
-      </c>
-      <c r="E3" s="38">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38">
-        <v>0</v>
-      </c>
-      <c r="J3" s="38">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38">
-        <v>0</v>
-      </c>
-      <c r="L3" s="38">
-        <v>0</v>
-      </c>
-      <c r="M3" s="38">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38">
-        <v>0</v>
-      </c>
-      <c r="O3" s="38">
-        <v>0</v>
-      </c>
-      <c r="P3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="38">
-        <v>0</v>
-      </c>
-      <c r="R3" s="38">
-        <v>0</v>
-      </c>
-      <c r="S3" s="38">
-        <v>0</v>
-      </c>
-      <c r="T3" s="38">
-        <v>0</v>
-      </c>
-      <c r="U3" s="38">
-        <v>0</v>
-      </c>
-      <c r="V3" s="38">
-        <v>0</v>
-      </c>
-      <c r="W3" s="38">
-        <v>0</v>
-      </c>
-      <c r="X3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15">
-      <c r="A4" s="38" t="s">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22">
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0</v>
+      </c>
+      <c r="V3" s="22">
+        <v>0</v>
+      </c>
+      <c r="W3" s="22">
+        <v>0</v>
+      </c>
+      <c r="X3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
       <c r="B4" s="36" cm="1">
@@ -7265,102 +7262,102 @@
         <f t="array" ref="C4">TREND($D4:$H4,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="38">
-        <v>0</v>
-      </c>
-      <c r="E4" s="38">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38">
-        <v>0</v>
-      </c>
-      <c r="G4" s="38">
-        <v>0</v>
-      </c>
-      <c r="H4" s="38">
-        <v>0</v>
-      </c>
-      <c r="I4" s="38">
-        <v>0</v>
-      </c>
-      <c r="J4" s="38">
-        <v>0</v>
-      </c>
-      <c r="K4" s="38">
-        <v>0</v>
-      </c>
-      <c r="L4" s="38">
-        <v>0</v>
-      </c>
-      <c r="M4" s="38">
-        <v>0</v>
-      </c>
-      <c r="N4" s="38">
-        <v>0</v>
-      </c>
-      <c r="O4" s="38">
-        <v>0</v>
-      </c>
-      <c r="P4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="38">
-        <v>0</v>
-      </c>
-      <c r="R4" s="38">
-        <v>0</v>
-      </c>
-      <c r="S4" s="38">
-        <v>0</v>
-      </c>
-      <c r="T4" s="38">
-        <v>0</v>
-      </c>
-      <c r="U4" s="38">
-        <v>0</v>
-      </c>
-      <c r="V4" s="38">
-        <v>0</v>
-      </c>
-      <c r="W4" s="38">
-        <v>0</v>
-      </c>
-      <c r="X4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15">
-      <c r="A5" s="38" t="s">
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0</v>
+      </c>
+      <c r="S4" s="22">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22">
+        <v>0</v>
+      </c>
+      <c r="V4" s="22">
+        <v>0</v>
+      </c>
+      <c r="W4" s="22">
+        <v>0</v>
+      </c>
+      <c r="X4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
       <c r="B5" s="36" cm="1">
@@ -7371,102 +7368,102 @@
         <f t="array" ref="C5">TREND($D5:$H5,$D$1:$H$1,C$1)</f>
         <v>10000000</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="34">
         <v>10000000</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="22">
         <v>10000000</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="22">
         <v>10000000</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="22">
         <v>10000000</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="22">
         <v>10000000</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="22">
         <v>10000000</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="22">
         <v>10000000</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="22">
         <v>10000000</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="22">
         <v>10000000</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="22">
         <v>10000000</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="22">
         <v>10000000</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="22">
         <v>10000000</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="22">
         <v>10000000</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="22">
         <v>10000000</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="22">
         <v>10000000</v>
       </c>
-      <c r="S5" s="38">
+      <c r="S5" s="22">
         <v>10000000</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="22">
         <v>10000000</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="22">
         <v>10000000</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="22">
         <v>10000000</v>
       </c>
-      <c r="W5" s="38">
+      <c r="W5" s="22">
         <v>10000000</v>
       </c>
-      <c r="X5" s="38">
+      <c r="X5" s="22">
         <v>10000000</v>
       </c>
-      <c r="Y5" s="38">
+      <c r="Y5" s="22">
         <v>10000000</v>
       </c>
-      <c r="Z5" s="38">
+      <c r="Z5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AA5" s="38">
+      <c r="AA5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AB5" s="38">
+      <c r="AB5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AC5" s="38">
+      <c r="AC5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AD5" s="38">
+      <c r="AD5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AE5" s="38">
+      <c r="AE5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AF5" s="38">
+      <c r="AF5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AG5" s="38">
+      <c r="AG5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AH5" s="38">
+      <c r="AH5" s="22">
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
       <c r="B6" s="36" cm="1">
@@ -7477,102 +7474,102 @@
         <f t="array" ref="C6">TREND($D6:$H6,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="38">
-        <v>0</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
-        <v>0</v>
-      </c>
-      <c r="J6" s="38">
-        <v>0</v>
-      </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="L6" s="38">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38">
-        <v>0</v>
-      </c>
-      <c r="N6" s="38">
-        <v>0</v>
-      </c>
-      <c r="O6" s="38">
-        <v>0</v>
-      </c>
-      <c r="P6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="38">
-        <v>0</v>
-      </c>
-      <c r="R6" s="38">
-        <v>0</v>
-      </c>
-      <c r="S6" s="38">
-        <v>0</v>
-      </c>
-      <c r="T6" s="38">
-        <v>0</v>
-      </c>
-      <c r="U6" s="38">
-        <v>0</v>
-      </c>
-      <c r="V6" s="38">
-        <v>0</v>
-      </c>
-      <c r="W6" s="38">
-        <v>0</v>
-      </c>
-      <c r="X6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="15">
-      <c r="A7" s="38" t="s">
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>0</v>
+      </c>
+      <c r="X6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
       <c r="B7" s="36" cm="1">
@@ -7583,102 +7580,102 @@
         <f t="array" ref="C7">TREND($D7:$H7,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="38">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
-        <v>0</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0</v>
-      </c>
-      <c r="H7" s="38">
-        <v>0</v>
-      </c>
-      <c r="I7" s="38">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38">
-        <v>0</v>
-      </c>
-      <c r="K7" s="38">
-        <v>0</v>
-      </c>
-      <c r="L7" s="38">
-        <v>0</v>
-      </c>
-      <c r="M7" s="38">
-        <v>0</v>
-      </c>
-      <c r="N7" s="38">
-        <v>0</v>
-      </c>
-      <c r="O7" s="38">
-        <v>0</v>
-      </c>
-      <c r="P7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="38">
-        <v>0</v>
-      </c>
-      <c r="R7" s="38">
-        <v>0</v>
-      </c>
-      <c r="S7" s="38">
-        <v>0</v>
-      </c>
-      <c r="T7" s="38">
-        <v>0</v>
-      </c>
-      <c r="U7" s="38">
-        <v>0</v>
-      </c>
-      <c r="V7" s="38">
-        <v>0</v>
-      </c>
-      <c r="W7" s="38">
-        <v>0</v>
-      </c>
-      <c r="X7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="15">
-      <c r="A8" s="38" t="s">
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0</v>
+      </c>
+      <c r="X7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
       <c r="B8" s="36" cm="1">
@@ -7689,97 +7686,97 @@
         <f t="array" ref="C8">TREND($D8:$H8,$D$1:$H$1,C$1)</f>
         <v>21995073.300000072</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="22">
         <v>21622802</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="22">
         <v>21145383</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="22">
         <v>20734919</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="22">
         <v>20371712</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="22">
         <v>19964181</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="22">
         <v>19554682</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="22">
         <v>19178638</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="22">
         <v>18847575</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="22">
         <v>18529905</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="22">
         <v>18227583</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="22">
         <v>17941459</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="22">
         <v>17663658</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="22">
         <v>17402951</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="22">
         <v>17153247</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="22">
         <v>16910180</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="22">
         <v>16674399</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="22">
         <v>16452237</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="22">
         <v>16240118</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="22">
         <v>16037451</v>
       </c>
-      <c r="W8" s="38">
+      <c r="W8" s="22">
         <v>15843834</v>
       </c>
-      <c r="X8" s="38">
+      <c r="X8" s="22">
         <v>15660470</v>
       </c>
-      <c r="Y8" s="38">
+      <c r="Y8" s="22">
         <v>15485650</v>
       </c>
-      <c r="Z8" s="38">
+      <c r="Z8" s="22">
         <v>15318639</v>
       </c>
-      <c r="AA8" s="38">
+      <c r="AA8" s="22">
         <v>15160212</v>
       </c>
-      <c r="AB8" s="38">
+      <c r="AB8" s="22">
         <v>15008910</v>
       </c>
-      <c r="AC8" s="38">
+      <c r="AC8" s="22">
         <v>14864979</v>
       </c>
-      <c r="AD8" s="38">
+      <c r="AD8" s="22">
         <v>14726530</v>
       </c>
-      <c r="AE8" s="38">
+      <c r="AE8" s="22">
         <v>14595632</v>
       </c>
-      <c r="AF8" s="38">
+      <c r="AF8" s="22">
         <v>14470507</v>
       </c>
-      <c r="AG8" s="38">
+      <c r="AG8" s="22">
         <v>14352157</v>
       </c>
-      <c r="AH8" s="38">
+      <c r="AH8" s="22">
         <v>14232948</v>
       </c>
     </row>
@@ -7800,118 +7797,118 @@
   </sheetPr>
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
-      <c r="B1" s="37">
+      <c r="B1" s="33">
         <v>2018</v>
       </c>
-      <c r="C1" s="37">
+      <c r="C1" s="33">
         <v>2019</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="22">
         <v>2020</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="22">
         <v>2021</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="22">
         <v>2022</v>
       </c>
-      <c r="G1" s="38">
+      <c r="G1" s="22">
         <v>2023</v>
       </c>
-      <c r="H1" s="38">
+      <c r="H1" s="22">
         <v>2024</v>
       </c>
-      <c r="I1" s="38">
+      <c r="I1" s="22">
         <v>2025</v>
       </c>
-      <c r="J1" s="38">
+      <c r="J1" s="22">
         <v>2026</v>
       </c>
-      <c r="K1" s="38">
+      <c r="K1" s="22">
         <v>2027</v>
       </c>
-      <c r="L1" s="38">
+      <c r="L1" s="22">
         <v>2028</v>
       </c>
-      <c r="M1" s="38">
+      <c r="M1" s="22">
         <v>2029</v>
       </c>
-      <c r="N1" s="38">
+      <c r="N1" s="22">
         <v>2030</v>
       </c>
-      <c r="O1" s="38">
+      <c r="O1" s="22">
         <v>2031</v>
       </c>
-      <c r="P1" s="38">
+      <c r="P1" s="22">
         <v>2032</v>
       </c>
-      <c r="Q1" s="38">
+      <c r="Q1" s="22">
         <v>2033</v>
       </c>
-      <c r="R1" s="38">
+      <c r="R1" s="22">
         <v>2034</v>
       </c>
-      <c r="S1" s="38">
+      <c r="S1" s="22">
         <v>2035</v>
       </c>
-      <c r="T1" s="38">
+      <c r="T1" s="22">
         <v>2036</v>
       </c>
-      <c r="U1" s="38">
+      <c r="U1" s="22">
         <v>2037</v>
       </c>
-      <c r="V1" s="38">
+      <c r="V1" s="22">
         <v>2038</v>
       </c>
-      <c r="W1" s="38">
+      <c r="W1" s="22">
         <v>2039</v>
       </c>
-      <c r="X1" s="38">
+      <c r="X1" s="22">
         <v>2040</v>
       </c>
-      <c r="Y1" s="38">
+      <c r="Y1" s="22">
         <v>2041</v>
       </c>
-      <c r="Z1" s="38">
+      <c r="Z1" s="22">
         <v>2042</v>
       </c>
-      <c r="AA1" s="38">
+      <c r="AA1" s="22">
         <v>2043</v>
       </c>
-      <c r="AB1" s="38">
+      <c r="AB1" s="22">
         <v>2044</v>
       </c>
-      <c r="AC1" s="38">
+      <c r="AC1" s="22">
         <v>2045</v>
       </c>
-      <c r="AD1" s="38">
+      <c r="AD1" s="22">
         <v>2046</v>
       </c>
-      <c r="AE1" s="38">
+      <c r="AE1" s="22">
         <v>2047</v>
       </c>
-      <c r="AF1" s="38">
+      <c r="AF1" s="22">
         <v>2048</v>
       </c>
-      <c r="AG1" s="38">
+      <c r="AG1" s="22">
         <v>2049</v>
       </c>
-      <c r="AH1" s="38">
+      <c r="AH1" s="22">
         <v>2050</v>
       </c>
       <c r="AI1">
@@ -7924,8 +7921,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
       <c r="B2" s="36" cm="1">
@@ -7936,97 +7933,97 @@
         <f t="array" ref="C2">TREND($D2:$H2,$D$1:$H$1,C$1)</f>
         <v>13157</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="22">
         <v>13157</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="22">
         <v>13157</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="22">
         <v>13157</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="22">
         <v>13157</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="22">
         <v>13157</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="22">
         <v>13157</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="22">
         <v>13157</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="22">
         <v>13157</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="22">
         <v>13157</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="22">
         <v>13157</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="22">
         <v>13157</v>
       </c>
-      <c r="O2" s="38">
+      <c r="O2" s="22">
         <v>13157</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="22">
         <v>13157</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="22">
         <v>13157</v>
       </c>
-      <c r="R2" s="38">
+      <c r="R2" s="22">
         <v>13157</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="22">
         <v>13157</v>
       </c>
-      <c r="T2" s="38">
+      <c r="T2" s="22">
         <v>13157</v>
       </c>
-      <c r="U2" s="38">
+      <c r="U2" s="22">
         <v>13157</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="22">
         <v>13157</v>
       </c>
-      <c r="W2" s="38">
+      <c r="W2" s="22">
         <v>13157</v>
       </c>
-      <c r="X2" s="38">
+      <c r="X2" s="22">
         <v>13157</v>
       </c>
-      <c r="Y2" s="38">
+      <c r="Y2" s="22">
         <v>13157</v>
       </c>
-      <c r="Z2" s="38">
+      <c r="Z2" s="22">
         <v>13157</v>
       </c>
-      <c r="AA2" s="38">
+      <c r="AA2" s="22">
         <v>13157</v>
       </c>
-      <c r="AB2" s="38">
+      <c r="AB2" s="22">
         <v>13157</v>
       </c>
-      <c r="AC2" s="38">
+      <c r="AC2" s="22">
         <v>13157</v>
       </c>
-      <c r="AD2" s="38">
+      <c r="AD2" s="22">
         <v>13157</v>
       </c>
-      <c r="AE2" s="38">
+      <c r="AE2" s="22">
         <v>13157</v>
       </c>
-      <c r="AF2" s="38">
+      <c r="AF2" s="22">
         <v>13157</v>
       </c>
-      <c r="AG2" s="38">
+      <c r="AG2" s="22">
         <v>13157</v>
       </c>
-      <c r="AH2" s="38">
+      <c r="AH2" s="22">
         <v>13157</v>
       </c>
       <c r="AI2" s="5">
@@ -8042,8 +8039,8 @@
         <v>8221.2277214155602</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="15">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
       <c r="B3" s="36" cm="1">
@@ -8054,97 +8051,97 @@
         <f t="array" ref="C3">TREND($D3:$H3,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="38">
-        <v>0</v>
-      </c>
-      <c r="E3" s="38">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38">
-        <v>0</v>
-      </c>
-      <c r="J3" s="38">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38">
-        <v>0</v>
-      </c>
-      <c r="L3" s="38">
-        <v>0</v>
-      </c>
-      <c r="M3" s="38">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38">
-        <v>0</v>
-      </c>
-      <c r="O3" s="38">
-        <v>0</v>
-      </c>
-      <c r="P3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="38">
-        <v>0</v>
-      </c>
-      <c r="R3" s="38">
-        <v>0</v>
-      </c>
-      <c r="S3" s="38">
-        <v>0</v>
-      </c>
-      <c r="T3" s="38">
-        <v>0</v>
-      </c>
-      <c r="U3" s="38">
-        <v>0</v>
-      </c>
-      <c r="V3" s="38">
-        <v>0</v>
-      </c>
-      <c r="W3" s="38">
-        <v>0</v>
-      </c>
-      <c r="X3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="38">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22">
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0</v>
+      </c>
+      <c r="V3" s="22">
+        <v>0</v>
+      </c>
+      <c r="W3" s="22">
+        <v>0</v>
+      </c>
+      <c r="X3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="22">
         <v>0</v>
       </c>
       <c r="AI3">
@@ -8157,8 +8154,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
       <c r="B4" s="36" cm="1">
@@ -8169,97 +8166,97 @@
         <f t="array" ref="C4">TREND($D4:$H4,$D$1:$H$1,C$1)</f>
         <v>8980</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="34">
         <v>8980</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="22">
         <v>8980</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="22">
         <v>8980</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="22">
         <v>8980</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="22">
         <v>8980</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="22">
         <v>8980</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="22">
         <v>8980</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="22">
         <v>8980</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="22">
         <v>8980</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="22">
         <v>8980</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="22">
         <v>8980</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="22">
         <v>8980</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="22">
         <v>8980</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="22">
         <v>8980</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R4" s="22">
         <v>8980</v>
       </c>
-      <c r="S4" s="38">
+      <c r="S4" s="22">
         <v>8980</v>
       </c>
-      <c r="T4" s="38">
+      <c r="T4" s="22">
         <v>8980</v>
       </c>
-      <c r="U4" s="38">
+      <c r="U4" s="22">
         <v>8980</v>
       </c>
-      <c r="V4" s="38">
+      <c r="V4" s="22">
         <v>8980</v>
       </c>
-      <c r="W4" s="38">
+      <c r="W4" s="22">
         <v>8980</v>
       </c>
-      <c r="X4" s="38">
+      <c r="X4" s="22">
         <v>8980</v>
       </c>
-      <c r="Y4" s="38">
+      <c r="Y4" s="22">
         <v>8980</v>
       </c>
-      <c r="Z4" s="38">
+      <c r="Z4" s="22">
         <v>8980</v>
       </c>
-      <c r="AA4" s="38">
+      <c r="AA4" s="22">
         <v>8980</v>
       </c>
-      <c r="AB4" s="38">
+      <c r="AB4" s="22">
         <v>8980</v>
       </c>
-      <c r="AC4" s="38">
+      <c r="AC4" s="22">
         <v>8980</v>
       </c>
-      <c r="AD4" s="38">
+      <c r="AD4" s="22">
         <v>8980</v>
       </c>
-      <c r="AE4" s="38">
+      <c r="AE4" s="22">
         <v>8980</v>
       </c>
-      <c r="AF4" s="38">
+      <c r="AF4" s="22">
         <v>8980</v>
       </c>
-      <c r="AG4" s="38">
+      <c r="AG4" s="22">
         <v>8980</v>
       </c>
-      <c r="AH4" s="38">
+      <c r="AH4" s="22">
         <v>8980</v>
       </c>
       <c r="AI4" s="5">
@@ -8275,8 +8272,8 @@
         <v>8980</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
       <c r="B5" s="36" cm="1">
@@ -8287,97 +8284,97 @@
         <f t="array" ref="C5">TREND($D5:$H5,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="38">
-        <v>0</v>
-      </c>
-      <c r="E5" s="38">
-        <v>0</v>
-      </c>
-      <c r="F5" s="38">
-        <v>0</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0</v>
-      </c>
-      <c r="H5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="38">
-        <v>0</v>
-      </c>
-      <c r="J5" s="38">
-        <v>0</v>
-      </c>
-      <c r="K5" s="38">
-        <v>0</v>
-      </c>
-      <c r="L5" s="38">
-        <v>0</v>
-      </c>
-      <c r="M5" s="38">
-        <v>0</v>
-      </c>
-      <c r="N5" s="38">
-        <v>0</v>
-      </c>
-      <c r="O5" s="38">
-        <v>0</v>
-      </c>
-      <c r="P5" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="38">
-        <v>0</v>
-      </c>
-      <c r="R5" s="38">
-        <v>0</v>
-      </c>
-      <c r="S5" s="38">
-        <v>0</v>
-      </c>
-      <c r="T5" s="38">
-        <v>0</v>
-      </c>
-      <c r="U5" s="38">
-        <v>0</v>
-      </c>
-      <c r="V5" s="38">
-        <v>0</v>
-      </c>
-      <c r="W5" s="38">
-        <v>0</v>
-      </c>
-      <c r="X5" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="38">
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22">
+        <v>0</v>
+      </c>
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0</v>
+      </c>
+      <c r="S5" s="22">
+        <v>0</v>
+      </c>
+      <c r="T5" s="22">
+        <v>0</v>
+      </c>
+      <c r="U5" s="22">
+        <v>0</v>
+      </c>
+      <c r="V5" s="22">
+        <v>0</v>
+      </c>
+      <c r="W5" s="22">
+        <v>0</v>
+      </c>
+      <c r="X5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="22">
         <v>0</v>
       </c>
       <c r="AI5">
@@ -8390,8 +8387,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="15">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
       <c r="B6" s="36" cm="1">
@@ -8402,97 +8399,97 @@
         <f t="array" ref="C6">TREND($D6:$H6,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="38">
-        <v>0</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
-        <v>0</v>
-      </c>
-      <c r="J6" s="38">
-        <v>0</v>
-      </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="L6" s="38">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38">
-        <v>0</v>
-      </c>
-      <c r="N6" s="38">
-        <v>0</v>
-      </c>
-      <c r="O6" s="38">
-        <v>0</v>
-      </c>
-      <c r="P6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="38">
-        <v>0</v>
-      </c>
-      <c r="R6" s="38">
-        <v>0</v>
-      </c>
-      <c r="S6" s="38">
-        <v>0</v>
-      </c>
-      <c r="T6" s="38">
-        <v>0</v>
-      </c>
-      <c r="U6" s="38">
-        <v>0</v>
-      </c>
-      <c r="V6" s="38">
-        <v>0</v>
-      </c>
-      <c r="W6" s="38">
-        <v>0</v>
-      </c>
-      <c r="X6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="38">
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>0</v>
+      </c>
+      <c r="X6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="22">
         <v>0</v>
       </c>
       <c r="AI6">
@@ -8505,8 +8502,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
       <c r="B7" s="36" cm="1">
@@ -8517,97 +8514,97 @@
         <f t="array" ref="C7">TREND($D7:$H7,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="38">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
-        <v>0</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0</v>
-      </c>
-      <c r="H7" s="38">
-        <v>0</v>
-      </c>
-      <c r="I7" s="38">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38">
-        <v>0</v>
-      </c>
-      <c r="K7" s="38">
-        <v>0</v>
-      </c>
-      <c r="L7" s="38">
-        <v>0</v>
-      </c>
-      <c r="M7" s="38">
-        <v>0</v>
-      </c>
-      <c r="N7" s="38">
-        <v>0</v>
-      </c>
-      <c r="O7" s="38">
-        <v>0</v>
-      </c>
-      <c r="P7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="38">
-        <v>0</v>
-      </c>
-      <c r="R7" s="38">
-        <v>0</v>
-      </c>
-      <c r="S7" s="38">
-        <v>0</v>
-      </c>
-      <c r="T7" s="38">
-        <v>0</v>
-      </c>
-      <c r="U7" s="38">
-        <v>0</v>
-      </c>
-      <c r="V7" s="38">
-        <v>0</v>
-      </c>
-      <c r="W7" s="38">
-        <v>0</v>
-      </c>
-      <c r="X7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="38">
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0</v>
+      </c>
+      <c r="X7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="22">
         <v>0</v>
       </c>
       <c r="AI7">
@@ -8620,8 +8617,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
       <c r="B8" s="36" cm="1">
@@ -8632,97 +8629,97 @@
         <f t="array" ref="C8">TREND($D8:$H8,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="38">
-        <v>0</v>
-      </c>
-      <c r="E8" s="38">
-        <v>0</v>
-      </c>
-      <c r="F8" s="38">
-        <v>0</v>
-      </c>
-      <c r="G8" s="38">
-        <v>0</v>
-      </c>
-      <c r="H8" s="38">
-        <v>0</v>
-      </c>
-      <c r="I8" s="38">
-        <v>0</v>
-      </c>
-      <c r="J8" s="38">
-        <v>0</v>
-      </c>
-      <c r="K8" s="38">
-        <v>0</v>
-      </c>
-      <c r="L8" s="38">
-        <v>0</v>
-      </c>
-      <c r="M8" s="38">
-        <v>0</v>
-      </c>
-      <c r="N8" s="38">
-        <v>0</v>
-      </c>
-      <c r="O8" s="38">
-        <v>0</v>
-      </c>
-      <c r="P8" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="38">
-        <v>0</v>
-      </c>
-      <c r="R8" s="38">
-        <v>0</v>
-      </c>
-      <c r="S8" s="38">
-        <v>0</v>
-      </c>
-      <c r="T8" s="38">
-        <v>0</v>
-      </c>
-      <c r="U8" s="38">
-        <v>0</v>
-      </c>
-      <c r="V8" s="38">
-        <v>0</v>
-      </c>
-      <c r="W8" s="38">
-        <v>0</v>
-      </c>
-      <c r="X8" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="38">
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0</v>
+      </c>
+      <c r="U8" s="22">
+        <v>0</v>
+      </c>
+      <c r="V8" s="22">
+        <v>0</v>
+      </c>
+      <c r="W8" s="22">
+        <v>0</v>
+      </c>
+      <c r="X8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="22">
         <v>0</v>
       </c>
       <c r="AI8">
@@ -8735,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="15">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
     </row>
   </sheetData>
@@ -8755,17 +8752,17 @@
   </sheetPr>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
       <c r="B1">
@@ -8868,732 +8865,963 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B2</f>
+        <v>202039</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C2</f>
+        <v>202039</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D2</f>
+        <v>202039</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E2</f>
+        <v>202039</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F2</f>
+        <v>202039</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G2</f>
+        <v>202039</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H2</f>
+        <v>202039</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I2</f>
+        <v>202039</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J2</f>
+        <v>202039</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K2</f>
+        <v>202039</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L2</f>
+        <v>202039</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M2</f>
+        <v>202039</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N2</f>
+        <v>202039</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O2</f>
+        <v>202039</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P2</f>
+        <v>202039</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q2</f>
+        <v>202039</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R2</f>
+        <v>202039</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S2</f>
+        <v>202039</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T2</f>
+        <v>202039</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U2</f>
+        <v>202039</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V2</f>
+        <v>202039</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W2</f>
+        <v>202039</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X2</f>
+        <v>202039</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y2</f>
+        <v>202039</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z2</f>
+        <v>202039</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA2</f>
+        <v>202039</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB2</f>
+        <v>202039</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC2</f>
+        <v>202039</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD2</f>
+        <v>202039</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE2</f>
+        <v>202039</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF2</f>
+        <v>202039</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG2</f>
+        <v>202039</v>
       </c>
       <c r="AH2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="15">
-      <c r="A3" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH2</f>
+        <v>202039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B3</f>
+        <v>203078.59999999998</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C3</f>
+        <v>203375.09999999998</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D3</f>
+        <v>205176</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E3</f>
+        <v>202475</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F3</f>
+        <v>203455</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G3</f>
+        <v>204642</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H3</f>
+        <v>205575</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I3</f>
+        <v>206600</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J3</f>
+        <v>207655</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K3</f>
+        <v>207910</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L3</f>
+        <v>208276</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M3</f>
+        <v>208561</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N3</f>
+        <v>208592</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O3</f>
+        <v>209251</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P3</f>
+        <v>209441</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q3</f>
+        <v>209787</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R3</f>
+        <v>209913</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S3</f>
+        <v>210319</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T3</f>
+        <v>210446</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U3</f>
+        <v>210596</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V3</f>
+        <v>210769</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W3</f>
+        <v>211020</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X3</f>
+        <v>211156</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y3</f>
+        <v>211345</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z3</f>
+        <v>211555</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA3</f>
+        <v>211711</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB3</f>
+        <v>211870</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC3</f>
+        <v>212013</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD3</f>
+        <v>212242</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE3</f>
+        <v>212390</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF3</f>
+        <v>212590</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG3</f>
+        <v>212698</v>
       </c>
       <c r="AH3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15">
-      <c r="A4" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH3</f>
+        <v>212770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B4</f>
+        <v>110889</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C4</f>
+        <v>110889</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D4</f>
+        <v>110889</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E4</f>
+        <v>110889</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F4</f>
+        <v>110889</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G4</f>
+        <v>110889</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H4</f>
+        <v>110889</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I4</f>
+        <v>110889</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J4</f>
+        <v>110889</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K4</f>
+        <v>110889</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L4</f>
+        <v>110889</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M4</f>
+        <v>110889</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N4</f>
+        <v>110889</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O4</f>
+        <v>110889</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P4</f>
+        <v>110889</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q4</f>
+        <v>110889</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R4</f>
+        <v>110889</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S4</f>
+        <v>110889</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T4</f>
+        <v>110889</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U4</f>
+        <v>110889</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V4</f>
+        <v>110889</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W4</f>
+        <v>110889</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X4</f>
+        <v>110889</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y4</f>
+        <v>110889</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z4</f>
+        <v>110889</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA4</f>
+        <v>110889</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB4</f>
+        <v>110889</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC4</f>
+        <v>110889</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD4</f>
+        <v>110889</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE4</f>
+        <v>110889</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF4</f>
+        <v>110889</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG4</f>
+        <v>110889</v>
       </c>
       <c r="AH4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15">
-      <c r="A5" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH4</f>
+        <v>110889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B5</f>
+        <v>110889</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C5</f>
+        <v>110889</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D5</f>
+        <v>110889</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E5</f>
+        <v>110889</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F5</f>
+        <v>110889</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G5</f>
+        <v>110889</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H5</f>
+        <v>110889</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I5</f>
+        <v>110889</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J5</f>
+        <v>110889</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K5</f>
+        <v>110889</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L5</f>
+        <v>110889</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M5</f>
+        <v>110889</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N5</f>
+        <v>110889</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O5</f>
+        <v>110889</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P5</f>
+        <v>110889</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q5</f>
+        <v>110889</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R5</f>
+        <v>110889</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S5</f>
+        <v>110889</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T5</f>
+        <v>110889</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U5</f>
+        <v>110889</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V5</f>
+        <v>110889</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W5</f>
+        <v>110889</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X5</f>
+        <v>110889</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y5</f>
+        <v>110889</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z5</f>
+        <v>110889</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA5</f>
+        <v>110889</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB5</f>
+        <v>110889</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC5</f>
+        <v>110889</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD5</f>
+        <v>110889</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE5</f>
+        <v>110889</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF5</f>
+        <v>110889</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG5</f>
+        <v>110889</v>
       </c>
       <c r="AH5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="15">
-      <c r="A6" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH5</f>
+        <v>110889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B6</f>
+        <v>371980.80000000075</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C6</f>
+        <v>363671.60000000149</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D6</f>
+        <v>355098</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E6</f>
+        <v>347089</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F6</f>
+        <v>339047</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G6</f>
+        <v>330779</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H6</f>
+        <v>321707</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I6</f>
+        <v>315128</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J6</f>
+        <v>310225</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K6</f>
+        <v>306196</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L6</f>
+        <v>303009</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M6</f>
+        <v>300535</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N6</f>
+        <v>298586</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O6</f>
+        <v>297658</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P6</f>
+        <v>297480</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q6</f>
+        <v>298182</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R6</f>
+        <v>299406</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S6</f>
+        <v>301279</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T6</f>
+        <v>303605</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U6</f>
+        <v>306341</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V6</f>
+        <v>309461</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W6</f>
+        <v>313001</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X6</f>
+        <v>316869</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y6</f>
+        <v>321250</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z6</f>
+        <v>326150</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA6</f>
+        <v>331553</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB6</f>
+        <v>337474</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC6</f>
+        <v>343924</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD6</f>
+        <v>350979</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE6</f>
+        <v>358625</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF6</f>
+        <v>366933</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG6</f>
+        <v>375889</v>
       </c>
       <c r="AH6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="15">
-      <c r="A7" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH6</f>
+        <v>385454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B7</f>
+        <v>211237.39999999991</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C7</f>
+        <v>211977.29999999981</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D7</f>
+        <v>212745</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E7</f>
+        <v>213606</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F7</f>
+        <v>213984</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G7</f>
+        <v>214805</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H7</f>
+        <v>215845</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I7</f>
+        <v>216741</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J7</f>
+        <v>217684</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K7</f>
+        <v>218066</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L7</f>
+        <v>218365</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M7</f>
+        <v>218687</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N7</f>
+        <v>218951</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O7</f>
+        <v>219273</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P7</f>
+        <v>219572</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q7</f>
+        <v>219878</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R7</f>
+        <v>220073</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S7</f>
+        <v>220290</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T7</f>
+        <v>220490</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U7</f>
+        <v>220677</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V7</f>
+        <v>220858</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W7</f>
+        <v>221050</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X7</f>
+        <v>221230</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y7</f>
+        <v>221408</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z7</f>
+        <v>221591</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA7</f>
+        <v>221764</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB7</f>
+        <v>221932</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC7</f>
+        <v>222097</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD7</f>
+        <v>222269</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE7</f>
+        <v>222435</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF7</f>
+        <v>222612</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG7</f>
+        <v>222774</v>
       </c>
       <c r="AH7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="15">
-      <c r="A8" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH7</f>
+        <v>222837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B8</f>
+        <v>447502.59999999963</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C8</f>
+        <v>439331.5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D8</f>
+        <v>431896</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E8</f>
+        <v>422360</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F8</f>
+        <v>414161</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G8</f>
+        <v>406907</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H8</f>
+        <v>398767</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I8</f>
+        <v>390587</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J8</f>
+        <v>383076</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K8</f>
+        <v>376463</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L8</f>
+        <v>370118</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M8</f>
+        <v>364080</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N8</f>
+        <v>358365</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O8</f>
+        <v>352816</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P8</f>
+        <v>347608</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q8</f>
+        <v>342621</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R8</f>
+        <v>337766</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S8</f>
+        <v>333056</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T8</f>
+        <v>328619</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U8</f>
+        <v>324382</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V8</f>
+        <v>320334</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W8</f>
+        <v>316466</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X8</f>
+        <v>312804</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y8</f>
+        <v>309312</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z8</f>
+        <v>305976</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA8</f>
+        <v>302812</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB8</f>
+        <v>299790</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC8</f>
+        <v>296915</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD8</f>
+        <v>294149</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE8</f>
+        <v>291535</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF8</f>
+        <v>289035</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG8</f>
+        <v>286672</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AH8</f>
+        <v>284290</v>
       </c>
     </row>
   </sheetData>
@@ -9612,33 +9840,33 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:37" ht="15" customHeight="1">
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>103</v>
       </c>
@@ -9646,7 +9874,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15" customHeight="1">
+    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
         <v>105</v>
@@ -9754,7 +9982,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1">
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>109</v>
       </c>
@@ -9796,7 +10024,7 @@
       <c r="AJ9" s="24"/>
       <c r="AK9" s="24"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>111</v>
       </c>
@@ -9909,7 +10137,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>116</v>
       </c>
@@ -10022,7 +10250,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -10135,7 +10363,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1">
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>124</v>
       </c>
@@ -10248,7 +10476,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1">
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>128</v>
       </c>
@@ -10361,7 +10589,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>132</v>
       </c>
@@ -10474,7 +10702,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>136</v>
       </c>
@@ -10587,7 +10815,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>140</v>
       </c>
@@ -10700,7 +10928,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>144</v>
       </c>
@@ -10813,7 +11041,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>148</v>
       </c>
@@ -10926,7 +11154,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>152</v>
       </c>
@@ -11039,7 +11267,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>156</v>
       </c>
@@ -11152,7 +11380,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="24" t="s">
         <v>160</v>
@@ -11263,7 +11491,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="24" t="s">
         <v>163</v>
@@ -11374,7 +11602,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
         <v>166</v>
       </c>
@@ -11484,7 +11712,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
         <v>169</v>
       </c>
@@ -11594,7 +11822,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -11632,7 +11860,7 @@
       <c r="AJ26" s="24"/>
       <c r="AK26" s="25"/>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>172</v>
       </c>
@@ -11677,7 +11905,7 @@
       <c r="AJ27" s="24"/>
       <c r="AK27" s="24"/>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>175</v>
       </c>
@@ -11790,7 +12018,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>179</v>
       </c>
@@ -11903,7 +12131,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>182</v>
       </c>
@@ -12016,7 +12244,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>185</v>
       </c>
@@ -12129,7 +12357,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>188</v>
       </c>
@@ -12242,7 +12470,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>191</v>
       </c>
@@ -12355,7 +12583,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>194</v>
       </c>
@@ -12468,7 +12696,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>197</v>
       </c>
@@ -12581,7 +12809,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>200</v>
       </c>
@@ -12694,7 +12922,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>203</v>
       </c>
@@ -12807,7 +13035,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -12920,7 +13148,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="24" t="s">
         <v>157</v>
@@ -13031,7 +13259,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="24" t="s">
         <v>160</v>
@@ -13142,7 +13370,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
         <v>163</v>
       </c>
@@ -13252,7 +13480,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="24" t="s">
         <v>166</v>
       </c>
@@ -13362,7 +13590,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>217</v>
       </c>
@@ -13475,7 +13703,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -13514,7 +13742,7 @@
       <c r="AJ44" s="24"/>
       <c r="AK44" s="25"/>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>220</v>
       </c>
@@ -13559,7 +13787,7 @@
       <c r="AJ45" s="24"/>
       <c r="AK45" s="24"/>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>223</v>
       </c>
@@ -13672,7 +13900,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>226</v>
       </c>
@@ -13785,7 +14013,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>229</v>
       </c>
@@ -13898,7 +14126,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>232</v>
       </c>
@@ -14011,7 +14239,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>235</v>
       </c>
@@ -14124,7 +14352,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>238</v>
       </c>
@@ -14237,7 +14465,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -14350,7 +14578,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>244</v>
       </c>
@@ -14463,7 +14691,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>247</v>
       </c>
@@ -14576,7 +14804,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>250</v>
       </c>
@@ -14689,7 +14917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="24" t="s">
         <v>153</v>
@@ -14800,7 +15028,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="24" t="s">
         <v>157</v>
@@ -14911,7 +15139,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="24" t="s">
         <v>160</v>
       </c>
@@ -15021,7 +15249,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="24" t="s">
         <v>163</v>
       </c>
@@ -15131,7 +15359,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>261</v>
       </c>
@@ -15244,7 +15472,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1">
+    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>264</v>
       </c>
@@ -15357,7 +15585,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -15396,7 +15624,7 @@
       <c r="AJ62" s="24"/>
       <c r="AK62" s="25"/>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>267</v>
       </c>
@@ -15441,7 +15669,7 @@
       <c r="AJ63" s="24"/>
       <c r="AK63" s="24"/>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>270</v>
       </c>
@@ -15554,7 +15782,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>273</v>
       </c>
@@ -15667,7 +15895,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>276</v>
       </c>
@@ -15780,7 +16008,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>279</v>
       </c>
@@ -15893,7 +16121,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>282</v>
       </c>
@@ -16006,7 +16234,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>285</v>
       </c>
@@ -16119,7 +16347,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>288</v>
       </c>
@@ -16232,7 +16460,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>291</v>
       </c>
@@ -16345,7 +16573,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>294</v>
       </c>
@@ -16458,7 +16686,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
         <v>149</v>
       </c>
@@ -16568,7 +16796,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="24" t="s">
         <v>153</v>
       </c>
@@ -16678,7 +16906,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15" customHeight="1">
+    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>301</v>
       </c>
@@ -16791,7 +17019,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>304</v>
       </c>
@@ -16904,7 +17132,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>307</v>
       </c>
@@ -17017,7 +17245,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>310</v>
       </c>
@@ -17130,7 +17358,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>313</v>
       </c>
@@ -17243,7 +17471,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -17282,7 +17510,7 @@
       <c r="AJ80" s="24"/>
       <c r="AK80" s="26"/>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>316</v>
       </c>
@@ -17327,7 +17555,7 @@
       <c r="AJ81" s="24"/>
       <c r="AK81" s="24"/>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>319</v>
       </c>
@@ -17440,7 +17668,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>322</v>
       </c>
@@ -17553,7 +17781,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="15" customHeight="1">
+    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>325</v>
       </c>
@@ -17666,7 +17894,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>328</v>
       </c>
@@ -17779,7 +18007,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1">
+    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>331</v>
       </c>
@@ -17892,7 +18120,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="15" customHeight="1">
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>334</v>
       </c>
@@ -18005,7 +18233,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="24" t="s">
         <v>137</v>
@@ -18116,7 +18344,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="24" t="s">
         <v>141</v>
@@ -18227,7 +18455,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="24" t="s">
         <v>145</v>
       </c>
@@ -18337,7 +18565,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>343</v>
       </c>
@@ -18450,7 +18678,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>346</v>
       </c>
@@ -18563,7 +18791,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>349</v>
       </c>
@@ -18676,7 +18904,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>352</v>
       </c>
@@ -18789,7 +19017,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>355</v>
       </c>
@@ -18902,7 +19130,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1">
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>358</v>
       </c>
@@ -19015,7 +19243,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="15" customHeight="1">
+    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>361</v>
       </c>
@@ -19128,7 +19356,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="15" customHeight="1">
+    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -19167,7 +19395,7 @@
       <c r="AJ98" s="24"/>
       <c r="AK98" s="25"/>
     </row>
-    <row r="99" spans="1:37" ht="15" customHeight="1">
+    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>364</v>
       </c>
@@ -19212,7 +19440,7 @@
       <c r="AJ99" s="24"/>
       <c r="AK99" s="24"/>
     </row>
-    <row r="100" spans="1:37" ht="15" customHeight="1">
+    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>367</v>
       </c>
@@ -19325,7 +19553,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:37" ht="15" customHeight="1">
+    <row r="101" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>370</v>
       </c>
@@ -19438,7 +19666,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="15" customHeight="1">
+    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>373</v>
       </c>
@@ -19551,7 +19779,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="15" customHeight="1">
+    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>376</v>
       </c>
@@ -19664,7 +19892,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="15" customHeight="1">
+    <row r="104" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="24" t="s">
         <v>129</v>
@@ -19775,7 +20003,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:37" ht="15" customHeight="1">
+    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="24" t="s">
         <v>133</v>
@@ -19886,7 +20114,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="15" customHeight="1">
+    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="24" t="s">
         <v>137</v>
       </c>
@@ -19996,7 +20224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="15" customHeight="1">
+    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="24" t="s">
         <v>141</v>
       </c>
@@ -20106,7 +20334,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="15" customHeight="1">
+    <row r="108" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>387</v>
       </c>
@@ -20219,7 +20447,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="15" customHeight="1">
+    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>390</v>
       </c>
@@ -20332,7 +20560,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="15" customHeight="1">
+    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>393</v>
       </c>
@@ -20445,7 +20673,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="15" customHeight="1">
+    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>396</v>
       </c>
@@ -20558,7 +20786,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="15" customHeight="1">
+    <row r="112" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>399</v>
       </c>
@@ -20671,7 +20899,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="15" customHeight="1">
+    <row r="113" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>402</v>
       </c>
@@ -20784,7 +21012,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="15" customHeight="1">
+    <row r="114" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>405</v>
       </c>
@@ -20897,7 +21125,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="15" customHeight="1">
+    <row r="115" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>408</v>
       </c>
@@ -21010,7 +21238,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:37" ht="15" customHeight="1">
+    <row r="116" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
@@ -21049,7 +21277,7 @@
       <c r="AJ116" s="24"/>
       <c r="AK116" s="26"/>
     </row>
-    <row r="117" spans="1:37" ht="15" customHeight="1">
+    <row r="117" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>411</v>
       </c>
@@ -21094,7 +21322,7 @@
       <c r="AJ117" s="24"/>
       <c r="AK117" s="24"/>
     </row>
-    <row r="118" spans="1:37" ht="15" customHeight="1">
+    <row r="118" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>414</v>
       </c>
@@ -21207,7 +21435,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="1:37" ht="15" customHeight="1">
+    <row r="119" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>417</v>
       </c>
@@ -21320,7 +21548,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="15" customHeight="1">
+    <row r="120" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>420</v>
       </c>
@@ -21433,7 +21661,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="15" customHeight="1">
+    <row r="121" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="24" t="s">
         <v>125</v>
@@ -21544,7 +21772,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="15" customHeight="1">
+    <row r="122" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="24" t="s">
         <v>129</v>
       </c>
@@ -21654,7 +21882,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="15" customHeight="1">
+    <row r="123" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="24" t="s">
         <v>133</v>
       </c>
@@ -21764,7 +21992,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="15" customHeight="1">
+    <row r="124" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>429</v>
       </c>
@@ -21877,7 +22105,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="15" customHeight="1">
+    <row r="125" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>432</v>
       </c>
@@ -21990,7 +22218,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="15" customHeight="1">
+    <row r="126" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>435</v>
       </c>
@@ -22103,7 +22331,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="15" customHeight="1">
+    <row r="127" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>438</v>
       </c>
@@ -22216,7 +22444,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="15" customHeight="1">
+    <row r="128" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>441</v>
       </c>
@@ -22329,7 +22557,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:37" ht="15" customHeight="1">
+    <row r="129" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>444</v>
       </c>
@@ -22442,7 +22670,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:37" ht="15" customHeight="1">
+    <row r="130" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>447</v>
       </c>
@@ -22555,7 +22783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:37" ht="15" customHeight="1">
+    <row r="131" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>450</v>
       </c>
@@ -22668,7 +22896,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:37" ht="15" customHeight="1">
+    <row r="132" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>453</v>
       </c>
@@ -22781,7 +23009,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:37" ht="15" customHeight="1">
+    <row r="133" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>456</v>
       </c>
@@ -22894,7 +23122,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:37" ht="15" customHeight="1">
+    <row r="134" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -22933,7 +23161,7 @@
       <c r="AJ134" s="24"/>
       <c r="AK134" s="26"/>
     </row>
-    <row r="135" spans="1:37" ht="15" customHeight="1">
+    <row r="135" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>459</v>
       </c>
@@ -22978,7 +23206,7 @@
       <c r="AJ135" s="24"/>
       <c r="AK135" s="24"/>
     </row>
-    <row r="136" spans="1:37" ht="15" customHeight="1">
+    <row r="136" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>462</v>
       </c>
@@ -23091,7 +23319,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:37" ht="15" customHeight="1">
+    <row r="137" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="24" t="s">
         <v>117</v>
@@ -23202,7 +23430,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:37" ht="15" customHeight="1">
+    <row r="138" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="24" t="s">
         <v>121</v>
@@ -23313,7 +23541,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="15" customHeight="1">
+    <row r="139" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="24" t="s">
         <v>125</v>
       </c>
@@ -23423,7 +23651,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:37" ht="15" customHeight="1">
+    <row r="140" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>471</v>
       </c>
@@ -23536,7 +23764,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:37" ht="15" customHeight="1">
+    <row r="141" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>474</v>
       </c>
@@ -23649,7 +23877,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:37" ht="15" customHeight="1">
+    <row r="142" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>477</v>
       </c>
@@ -23762,7 +23990,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:37" ht="15" customHeight="1">
+    <row r="143" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>480</v>
       </c>
@@ -23875,7 +24103,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:37" ht="15" customHeight="1">
+    <row r="144" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>483</v>
       </c>
@@ -23988,7 +24216,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:37" ht="15" customHeight="1">
+    <row r="145" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>486</v>
       </c>
@@ -24101,7 +24329,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="15" customHeight="1">
+    <row r="146" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>489</v>
       </c>
@@ -24214,7 +24442,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="1:37" ht="15" customHeight="1">
+    <row r="147" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>492</v>
       </c>
@@ -24327,7 +24555,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:37" ht="15" customHeight="1">
+    <row r="148" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>495</v>
       </c>
@@ -24440,7 +24668,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:37" ht="15" customHeight="1">
+    <row r="149" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>498</v>
       </c>
@@ -24553,7 +24781,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="15" customHeight="1">
+    <row r="150" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>501</v>
       </c>
@@ -24666,7 +24894,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:37" ht="15" customHeight="1">
+    <row r="151" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>504</v>
       </c>
@@ -24779,7 +25007,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:37" ht="15" customHeight="1">
+    <row r="152" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="24"/>
       <c r="C152" s="24"/>
@@ -24818,7 +25046,7 @@
       <c r="AJ152" s="24"/>
       <c r="AK152" s="26"/>
     </row>
-    <row r="153" spans="1:37" ht="15" customHeight="1">
+    <row r="153" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="28" t="s">
         <v>507</v>
       </c>
@@ -24860,7 +25088,7 @@
       <c r="AJ153" s="24"/>
       <c r="AK153" s="24"/>
     </row>
-    <row r="154" spans="1:37" ht="15" customHeight="1">
+    <row r="154" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="24" t="s">
         <v>112</v>
       </c>
@@ -24970,7 +25198,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:37" ht="15" customHeight="1">
+    <row r="155" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="24" t="s">
         <v>117</v>
       </c>
@@ -25080,7 +25308,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:37" ht="15" customHeight="1">
+    <row r="156" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>513</v>
       </c>
@@ -25193,7 +25421,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:37" ht="15" customHeight="1">
+    <row r="157" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>516</v>
       </c>
@@ -25306,7 +25534,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:37" ht="15" customHeight="1">
+    <row r="158" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>519</v>
       </c>
@@ -25419,7 +25647,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:37" ht="15" customHeight="1">
+    <row r="159" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>522</v>
       </c>
@@ -25532,7 +25760,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="160" spans="1:37" ht="15" customHeight="1">
+    <row r="160" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>525</v>
       </c>
@@ -25645,7 +25873,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="1:37" ht="15" customHeight="1">
+    <row r="161" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>528</v>
       </c>
@@ -25758,7 +25986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="1:37" ht="15" customHeight="1">
+    <row r="162" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>531</v>
       </c>
@@ -25871,7 +26099,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:37" ht="15" customHeight="1">
+    <row r="163" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>534</v>
       </c>
@@ -25984,7 +26212,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:37" ht="15" customHeight="1">
+    <row r="164" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>537</v>
       </c>
@@ -26097,7 +26325,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="165" spans="1:37" ht="15" customHeight="1">
+    <row r="165" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>540</v>
       </c>
@@ -26210,7 +26438,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:37" ht="15" customHeight="1">
+    <row r="166" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>543</v>
       </c>
@@ -26323,7 +26551,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="167" spans="1:37" ht="15" customHeight="1">
+    <row r="167" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>546</v>
       </c>
@@ -26436,7 +26664,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="1:37" ht="15" customHeight="1">
+    <row r="168" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="24" t="s">
         <v>166</v>
       </c>
@@ -26546,7 +26774,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="1:37" ht="15" customHeight="1">
+    <row r="169" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="24" t="s">
         <v>169</v>
       </c>
@@ -26656,7 +26884,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:37" ht="15" customHeight="1">
+    <row r="170" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="24"/>
       <c r="C170" s="24"/>
       <c r="D170" s="24"/>
@@ -26694,7 +26922,7 @@
       <c r="AJ170" s="24"/>
       <c r="AK170" s="26"/>
     </row>
-    <row r="171" spans="1:37" ht="15" customHeight="1">
+    <row r="171" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>553</v>
       </c>
@@ -26739,7 +26967,7 @@
       <c r="AJ171" s="24"/>
       <c r="AK171" s="24"/>
     </row>
-    <row r="172" spans="1:37" ht="15" customHeight="1">
+    <row r="172" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>556</v>
       </c>
@@ -26852,7 +27080,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:37" ht="15" customHeight="1">
+    <row r="173" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>559</v>
       </c>
@@ -26965,7 +27193,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:37" ht="15" customHeight="1">
+    <row r="174" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>562</v>
       </c>
@@ -27078,7 +27306,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:37" ht="15" customHeight="1">
+    <row r="175" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>565</v>
       </c>
@@ -27191,7 +27419,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:37" ht="15" customHeight="1">
+    <row r="176" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>568</v>
       </c>
@@ -27304,7 +27532,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="177" spans="1:37" ht="15" customHeight="1">
+    <row r="177" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>571</v>
       </c>
@@ -27417,7 +27645,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:37" ht="15" customHeight="1">
+    <row r="178" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>574</v>
       </c>
@@ -27530,7 +27758,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:37" ht="15" customHeight="1">
+    <row r="179" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>577</v>
       </c>
@@ -27643,7 +27871,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:37" ht="15" customHeight="1">
+    <row r="180" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>580</v>
       </c>
@@ -27756,7 +27984,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:37" ht="15" customHeight="1">
+    <row r="181" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>583</v>
       </c>
@@ -27869,7 +28097,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:37" ht="15" customHeight="1">
+    <row r="182" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>586</v>
       </c>
@@ -27982,7 +28210,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="183" spans="1:37" ht="15" customHeight="1">
+    <row r="183" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="24" t="s">
         <v>157</v>
       </c>
@@ -28092,7 +28320,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="184" spans="1:37" ht="15" customHeight="1">
+    <row r="184" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="24" t="s">
         <v>160</v>
       </c>
@@ -28202,7 +28430,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="185" spans="1:37" ht="15" customHeight="1">
+    <row r="185" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>593</v>
       </c>
@@ -28315,7 +28543,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="1:37" ht="15" customHeight="1">
+    <row r="186" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>596</v>
       </c>
@@ -28428,7 +28656,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="1:37" ht="15" customHeight="1">
+    <row r="187" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>599</v>
       </c>
@@ -28541,7 +28769,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="188" spans="1:37" ht="15" customHeight="1">
+    <row r="188" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="24"/>
       <c r="C188" s="24"/>
@@ -28580,7 +28808,7 @@
       <c r="AJ188" s="24"/>
       <c r="AK188" s="26"/>
     </row>
-    <row r="189" spans="1:37" ht="15" customHeight="1">
+    <row r="189" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>602</v>
       </c>
@@ -28625,7 +28853,7 @@
       <c r="AJ189" s="24"/>
       <c r="AK189" s="24"/>
     </row>
-    <row r="190" spans="1:37" ht="15" customHeight="1">
+    <row r="190" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>605</v>
       </c>
@@ -28738,7 +28966,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:37" ht="15" customHeight="1">
+    <row r="191" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>608</v>
       </c>
@@ -28851,7 +29079,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:37" ht="15" customHeight="1">
+    <row r="192" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>611</v>
       </c>
@@ -28964,7 +29192,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:37" ht="15" customHeight="1">
+    <row r="193" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>614</v>
       </c>
@@ -29077,7 +29305,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:37" ht="15" customHeight="1">
+    <row r="194" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>617</v>
       </c>
@@ -29190,7 +29418,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:37" ht="15" customHeight="1">
+    <row r="195" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>620</v>
       </c>
@@ -29303,7 +29531,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:37" ht="15" customHeight="1">
+    <row r="196" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>623</v>
       </c>
@@ -29416,7 +29644,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:37" ht="15" customHeight="1">
+    <row r="197" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>626</v>
       </c>
@@ -29529,7 +29757,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:37" ht="15" customHeight="1">
+    <row r="198" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="24" t="s">
         <v>145</v>
       </c>
@@ -29639,7 +29867,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:37" ht="15" customHeight="1">
+    <row r="199" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="24" t="s">
         <v>149</v>
       </c>
@@ -29749,7 +29977,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="200" spans="1:37" ht="15" customHeight="1">
+    <row r="200" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>633</v>
       </c>
@@ -29862,7 +30090,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:37" ht="15" customHeight="1">
+    <row r="201" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>636</v>
       </c>
@@ -29975,7 +30203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="202" spans="1:37" ht="15" customHeight="1">
+    <row r="202" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>639</v>
       </c>
@@ -30088,7 +30316,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:37" ht="15" customHeight="1">
+    <row r="203" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>642</v>
       </c>
@@ -30201,7 +30429,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:37" ht="15" customHeight="1">
+    <row r="204" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>645</v>
       </c>
@@ -30314,7 +30542,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:37" ht="15" customHeight="1">
+    <row r="205" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>648</v>
       </c>
@@ -30427,7 +30655,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:37" ht="15" customHeight="1">
+    <row r="206" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="24"/>
       <c r="C206" s="24"/>
@@ -30466,7 +30694,7 @@
       <c r="AJ206" s="24"/>
       <c r="AK206" s="25"/>
     </row>
-    <row r="207" spans="1:37" ht="15" customHeight="1">
+    <row r="207" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>651</v>
       </c>
@@ -30511,7 +30739,7 @@
       <c r="AJ207" s="24"/>
       <c r="AK207" s="24"/>
     </row>
-    <row r="208" spans="1:37" ht="15" customHeight="1">
+    <row r="208" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>654</v>
       </c>
@@ -30624,7 +30852,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="209" spans="1:37" ht="15" customHeight="1">
+    <row r="209" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>657</v>
       </c>
@@ -30737,7 +30965,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:37" ht="15" customHeight="1">
+    <row r="210" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>660</v>
       </c>
@@ -30850,7 +31078,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:37" ht="15" customHeight="1">
+    <row r="211" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>663</v>
       </c>
@@ -30963,7 +31191,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:37" ht="15" customHeight="1">
+    <row r="212" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>666</v>
       </c>
@@ -31076,7 +31304,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:37" ht="15" customHeight="1">
+    <row r="213" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
         <v>133</v>
       </c>
@@ -31186,7 +31414,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:37" ht="15" customHeight="1">
+    <row r="214" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="24" t="s">
         <v>137</v>
       </c>
@@ -31296,7 +31524,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:37" ht="15" customHeight="1">
+    <row r="215" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>673</v>
       </c>
@@ -31409,7 +31637,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:37" ht="15" customHeight="1">
+    <row r="216" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>676</v>
       </c>
@@ -31522,7 +31750,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="217" spans="1:37" ht="15" customHeight="1">
+    <row r="217" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>679</v>
       </c>
@@ -31635,7 +31863,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="218" spans="1:37" ht="15" customHeight="1">
+    <row r="218" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>682</v>
       </c>
@@ -31748,7 +31976,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="219" spans="1:37" ht="15" customHeight="1">
+    <row r="219" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>685</v>
       </c>
@@ -31861,7 +32089,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:37" ht="15" customHeight="1">
+    <row r="220" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>688</v>
       </c>
@@ -31974,7 +32202,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:37" ht="15" customHeight="1">
+    <row r="221" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>691</v>
       </c>
@@ -32087,7 +32315,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:37" ht="15" customHeight="1">
+    <row r="222" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>694</v>
       </c>
@@ -32200,7 +32428,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:37" ht="15" customHeight="1">
+    <row r="223" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>697</v>
       </c>
@@ -32313,7 +32541,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:37" ht="15" customHeight="1">
+    <row r="224" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="24"/>
       <c r="C224" s="24"/>
@@ -32352,7 +32580,7 @@
       <c r="AJ224" s="24"/>
       <c r="AK224" s="25"/>
     </row>
-    <row r="225" spans="1:37" ht="15" customHeight="1">
+    <row r="225" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>700</v>
       </c>
@@ -32397,7 +32625,7 @@
       <c r="AJ225" s="24"/>
       <c r="AK225" s="24"/>
     </row>
-    <row r="226" spans="1:37" ht="15" customHeight="1">
+    <row r="226" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>703</v>
       </c>
@@ -32510,7 +32738,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:37" ht="15" customHeight="1">
+    <row r="227" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>706</v>
       </c>
@@ -32623,7 +32851,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="228" spans="1:37" ht="15" customHeight="1">
+    <row r="228" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="24" t="s">
         <v>121</v>
       </c>
@@ -32733,7 +32961,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="229" spans="1:37" ht="15" customHeight="1">
+    <row r="229" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="24" t="s">
         <v>125</v>
       </c>
@@ -32843,7 +33071,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="230" spans="1:37" ht="15" customHeight="1">
+    <row r="230" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>713</v>
       </c>
@@ -32956,7 +33184,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="231" spans="1:37" ht="15" customHeight="1">
+    <row r="231" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>716</v>
       </c>
@@ -33069,7 +33297,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="232" spans="1:37" ht="15" customHeight="1">
+    <row r="232" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>719</v>
       </c>
@@ -33182,7 +33410,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="233" spans="1:37" ht="15" customHeight="1">
+    <row r="233" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>722</v>
       </c>
@@ -33295,7 +33523,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="234" spans="1:37" ht="15" customHeight="1">
+    <row r="234" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>725</v>
       </c>
@@ -33408,7 +33636,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="235" spans="1:37" ht="15" customHeight="1">
+    <row r="235" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>728</v>
       </c>
@@ -33521,7 +33749,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="236" spans="1:37" ht="15" customHeight="1">
+    <row r="236" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>731</v>
       </c>
@@ -33634,7 +33862,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="237" spans="1:37" ht="15" customHeight="1">
+    <row r="237" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>734</v>
       </c>
@@ -33747,7 +33975,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="238" spans="1:37" ht="15" customHeight="1">
+    <row r="238" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>737</v>
       </c>
@@ -33860,7 +34088,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="239" spans="1:37" ht="15" customHeight="1">
+    <row r="239" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>740</v>
       </c>
@@ -33973,7 +34201,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="240" spans="1:37" ht="15" customHeight="1">
+    <row r="240" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>743</v>
       </c>
@@ -34086,7 +34314,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="241" spans="1:37" ht="15" customHeight="1">
+    <row r="241" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>746</v>
       </c>
@@ -34199,7 +34427,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="242" spans="1:37" ht="15" customHeight="1">
+    <row r="242" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="24"/>
       <c r="C242" s="24"/>
@@ -34238,7 +34466,7 @@
       <c r="AJ242" s="24"/>
       <c r="AK242" s="26"/>
     </row>
-    <row r="243" spans="1:37" ht="15" customHeight="1">
+    <row r="243" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="28" t="s">
         <v>749</v>
       </c>
@@ -34280,7 +34508,7 @@
       <c r="AJ243" s="24"/>
       <c r="AK243" s="24"/>
     </row>
-    <row r="244" spans="1:37" ht="15" customHeight="1">
+    <row r="244" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="24" t="s">
         <v>112</v>
       </c>
@@ -34390,7 +34618,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="245" spans="1:37" ht="15" customHeight="1">
+    <row r="245" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>753</v>
       </c>
@@ -34503,7 +34731,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:37" ht="15" customHeight="1">
+    <row r="246" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>756</v>
       </c>
@@ -34616,7 +34844,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:37" ht="15" customHeight="1">
+    <row r="247" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>759</v>
       </c>
@@ -34729,7 +34957,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:37" ht="15" customHeight="1">
+    <row r="248" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>762</v>
       </c>
@@ -34842,7 +35070,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:37" ht="15" customHeight="1">
+    <row r="249" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>765</v>
       </c>
@@ -34955,7 +35183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:37" ht="15" customHeight="1">
+    <row r="250" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>768</v>
       </c>
@@ -35068,7 +35296,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:37" ht="15" customHeight="1">
+    <row r="251" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>771</v>
       </c>
@@ -35181,7 +35409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:37" ht="15" customHeight="1">
+    <row r="252" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>774</v>
       </c>
@@ -35294,7 +35522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:37" ht="15" customHeight="1">
+    <row r="253" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>777</v>
       </c>
@@ -35407,7 +35635,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:37" ht="15" customHeight="1">
+    <row r="254" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>780</v>
       </c>
@@ -35520,7 +35748,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:37" ht="15" customHeight="1">
+    <row r="255" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>783</v>
       </c>
@@ -35633,7 +35861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:37" ht="15" customHeight="1">
+    <row r="256" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>786</v>
       </c>
@@ -35746,7 +35974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:37" ht="15" customHeight="1">
+    <row r="257" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="24" t="s">
         <v>163</v>
       </c>
@@ -35856,7 +36084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:37" ht="15" customHeight="1">
+    <row r="258" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="24" t="s">
         <v>166</v>
       </c>
@@ -35966,7 +36194,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:37" ht="15" customHeight="1">
+    <row r="259" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>793</v>
       </c>
@@ -36079,7 +36307,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:37" ht="15" customHeight="1">
+    <row r="260" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="24"/>
       <c r="C260" s="24"/>
@@ -36118,7 +36346,7 @@
       <c r="AJ260" s="24"/>
       <c r="AK260" s="25"/>
     </row>
-    <row r="261" spans="1:37" ht="15" customHeight="1">
+    <row r="261" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>796</v>
       </c>
@@ -36163,7 +36391,7 @@
       <c r="AJ261" s="24"/>
       <c r="AK261" s="24"/>
     </row>
-    <row r="262" spans="1:37" ht="15" customHeight="1">
+    <row r="262" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>799</v>
       </c>
@@ -36276,7 +36504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="263" spans="1:37" ht="15" customHeight="1">
+    <row r="263" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="24" t="s">
         <v>117</v>
       </c>
@@ -36386,7 +36614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="264" spans="1:37" ht="15" customHeight="1">
+    <row r="264" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="24" t="s">
         <v>121</v>
       </c>
@@ -36496,7 +36724,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="265" spans="1:37" ht="15" customHeight="1">
+    <row r="265" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="24" t="s">
         <v>125</v>
       </c>
@@ -36606,7 +36834,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="266" spans="1:37" ht="15" customHeight="1">
+    <row r="266" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="24" t="s">
         <v>129</v>
       </c>
@@ -36716,7 +36944,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="267" spans="1:37" ht="15" customHeight="1">
+    <row r="267" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="24" t="s">
         <v>133</v>
       </c>
@@ -36826,7 +37054,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="268" spans="1:37" ht="15" customHeight="1">
+    <row r="268" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="24" t="s">
         <v>137</v>
       </c>
@@ -36936,7 +37164,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:37" ht="15" customHeight="1">
+    <row r="269" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="24" t="s">
         <v>141</v>
       </c>
@@ -37046,7 +37274,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="270" spans="1:37" ht="15" customHeight="1">
+    <row r="270" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="24" t="s">
         <v>145</v>
       </c>
@@ -37156,7 +37384,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="271" spans="1:37" ht="15" customHeight="1">
+    <row r="271" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="24" t="s">
         <v>149</v>
       </c>
@@ -37266,7 +37494,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="272" spans="1:37" ht="15" customHeight="1">
+    <row r="272" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="24" t="s">
         <v>153</v>
       </c>
@@ -37376,7 +37604,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="273" spans="2:37" ht="15" customHeight="1">
+    <row r="273" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="24" t="s">
         <v>157</v>
       </c>
@@ -37486,7 +37714,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="274" spans="2:37" ht="15" customHeight="1">
+    <row r="274" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="24" t="s">
         <v>160</v>
       </c>
@@ -37596,7 +37824,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="275" spans="2:37" ht="15" customHeight="1">
+    <row r="275" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="24" t="s">
         <v>163</v>
       </c>
@@ -37706,7 +37934,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="276" spans="2:37" ht="15" customHeight="1">
+    <row r="276" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="24" t="s">
         <v>166</v>
       </c>
@@ -37816,7 +38044,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="277" spans="2:37" ht="15" customHeight="1">
+    <row r="277" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="24" t="s">
         <v>169</v>
       </c>
@@ -37926,7 +38154,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="278" spans="2:37" ht="15" customHeight="1">
+    <row r="278" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="24"/>
       <c r="C278" s="24"/>
       <c r="D278" s="24"/>
@@ -37964,7 +38192,7 @@
       <c r="AJ278" s="24"/>
       <c r="AK278" s="26"/>
     </row>
-    <row r="279" spans="2:37" ht="15" customHeight="1">
+    <row r="279" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="27" t="s">
         <v>832</v>
       </c>
@@ -38006,7 +38234,7 @@
       <c r="AJ279" s="24"/>
       <c r="AK279" s="24"/>
     </row>
-    <row r="280" spans="2:37" ht="15" customHeight="1">
+    <row r="280" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="24" t="s">
         <v>112</v>
       </c>
@@ -38116,7 +38344,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="281" spans="2:37" ht="15" customHeight="1">
+    <row r="281" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="24" t="s">
         <v>117</v>
       </c>
@@ -38226,7 +38454,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="282" spans="2:37" ht="15" customHeight="1">
+    <row r="282" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="24" t="s">
         <v>121</v>
       </c>
@@ -38336,7 +38564,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="283" spans="2:37" ht="15" customHeight="1">
+    <row r="283" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="24" t="s">
         <v>125</v>
       </c>
@@ -38446,7 +38674,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="284" spans="2:37" ht="15" customHeight="1">
+    <row r="284" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="24" t="s">
         <v>129</v>
       </c>
@@ -38556,7 +38784,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="285" spans="2:37" ht="15" customHeight="1">
+    <row r="285" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="24" t="s">
         <v>133</v>
       </c>
@@ -38666,7 +38894,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="286" spans="2:37" ht="15" customHeight="1">
+    <row r="286" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="24" t="s">
         <v>137</v>
       </c>
@@ -38776,7 +39004,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="287" spans="2:37" ht="15" customHeight="1">
+    <row r="287" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="24" t="s">
         <v>141</v>
       </c>
@@ -38886,7 +39114,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="288" spans="2:37" ht="15" customHeight="1">
+    <row r="288" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="24" t="s">
         <v>145</v>
       </c>
@@ -38996,7 +39224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="289" spans="2:37" ht="15" customHeight="1">
+    <row r="289" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="24" t="s">
         <v>149</v>
       </c>
@@ -39106,7 +39334,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="290" spans="2:37" ht="15" customHeight="1">
+    <row r="290" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="24" t="s">
         <v>153</v>
       </c>
@@ -39216,7 +39444,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="291" spans="2:37" ht="15" customHeight="1">
+    <row r="291" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="24" t="s">
         <v>157</v>
       </c>
@@ -39326,7 +39554,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="292" spans="2:37" ht="15" customHeight="1">
+    <row r="292" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="24" t="s">
         <v>160</v>
       </c>
@@ -39436,7 +39664,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="293" spans="2:37" ht="15" customHeight="1">
+    <row r="293" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="24" t="s">
         <v>163</v>
       </c>
@@ -39546,7 +39774,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="294" spans="2:37" ht="15" customHeight="1">
+    <row r="294" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="24" t="s">
         <v>166</v>
       </c>
@@ -39656,7 +39884,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="295" spans="2:37" ht="15" customHeight="1">
+    <row r="295" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="24" t="s">
         <v>169</v>
       </c>
@@ -39766,7 +39994,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="296" spans="2:37" ht="15" customHeight="1">
+    <row r="296" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="24"/>
       <c r="C296" s="24"/>
       <c r="D296" s="24"/>
@@ -39804,7 +40032,7 @@
       <c r="AJ296" s="24"/>
       <c r="AK296" s="26"/>
     </row>
-    <row r="297" spans="2:37" ht="15" customHeight="1">
+    <row r="297" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="27" t="s">
         <v>866</v>
       </c>
@@ -39846,7 +40074,7 @@
       <c r="AJ297" s="24"/>
       <c r="AK297" s="24"/>
     </row>
-    <row r="298" spans="2:37" ht="15" customHeight="1">
+    <row r="298" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="24" t="s">
         <v>868</v>
       </c>
@@ -39956,7 +40184,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="299" spans="2:37" ht="15" customHeight="1">
+    <row r="299" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="24" t="s">
         <v>871</v>
       </c>
@@ -40066,7 +40294,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="300" spans="2:37" ht="15" customHeight="1">
+    <row r="300" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="24" t="s">
         <v>874</v>
       </c>
@@ -40176,52 +40404,52 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="301" spans="2:37" ht="15" customHeight="1">
+    <row r="301" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F301" s="24"/>
     </row>
-    <row r="302" spans="2:37" ht="15" customHeight="1">
+    <row r="302" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F302" s="24"/>
     </row>
-    <row r="303" spans="2:37" ht="15" customHeight="1">
+    <row r="303" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F303" s="24"/>
     </row>
-    <row r="304" spans="2:37" ht="15" customHeight="1">
+    <row r="304" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F304" s="24"/>
     </row>
-    <row r="305" spans="6:6" ht="15" customHeight="1">
+    <row r="305" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F305" s="24"/>
     </row>
-    <row r="306" spans="6:6" ht="15" customHeight="1">
+    <row r="306" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F306" s="24"/>
     </row>
-    <row r="307" spans="6:6" ht="15" customHeight="1">
+    <row r="307" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F307" s="24"/>
     </row>
-    <row r="308" spans="6:6" ht="15" customHeight="1">
+    <row r="308" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F308" s="24"/>
     </row>
-    <row r="309" spans="6:6" ht="15" customHeight="1">
+    <row r="309" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F309" s="24"/>
     </row>
-    <row r="310" spans="6:6" ht="15" customHeight="1">
+    <row r="310" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F310" s="24"/>
     </row>
-    <row r="311" spans="6:6" ht="15" customHeight="1">
+    <row r="311" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F311" s="24"/>
     </row>
-    <row r="312" spans="6:6" ht="15" customHeight="1">
+    <row r="312" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F312" s="24"/>
     </row>
-    <row r="313" spans="6:6" ht="15" customHeight="1">
+    <row r="313" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F313" s="24"/>
     </row>
-    <row r="314" spans="6:6" ht="15" customHeight="1">
+    <row r="314" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F314" s="24"/>
     </row>
-    <row r="315" spans="6:6" ht="15" customHeight="1">
+    <row r="315" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F315" s="24"/>
     </row>
-    <row r="316" spans="6:6" ht="15" customHeight="1">
+    <row r="316" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F316" s="24"/>
     </row>
   </sheetData>
@@ -40237,13 +40465,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -40254,22 +40482,22 @@
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.15" customHeight="1">
+    <row r="4" spans="1:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>880</v>
       </c>
@@ -40304,7 +40532,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>891</v>
       </c>
@@ -40337,7 +40565,7 @@
         <v>1.5104586950000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>896</v>
       </c>
@@ -40367,7 +40595,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>898</v>
       </c>
@@ -40397,7 +40625,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>901</v>
       </c>
@@ -40427,7 +40655,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>903</v>
       </c>
@@ -40457,7 +40685,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>907</v>
       </c>
@@ -40487,7 +40715,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>909</v>
       </c>
@@ -40517,7 +40745,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>896</v>
       </c>
@@ -40547,7 +40775,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>912</v>
       </c>
@@ -40577,7 +40805,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>901</v>
       </c>
@@ -40607,7 +40835,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>915</v>
       </c>
@@ -40637,7 +40865,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>917</v>
       </c>
@@ -40667,7 +40895,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>903</v>
       </c>
@@ -40697,7 +40925,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>920</v>
       </c>
@@ -40727,7 +40955,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>901</v>
       </c>
@@ -40757,7 +40985,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>923</v>
       </c>
@@ -40787,7 +41015,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>896</v>
       </c>
@@ -40817,7 +41045,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>926</v>
       </c>
@@ -40847,7 +41075,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>928</v>
       </c>
@@ -40877,7 +41105,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>930</v>
       </c>
@@ -40907,7 +41135,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>928</v>
       </c>
@@ -40937,7 +41165,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>934</v>
       </c>
@@ -40968,7 +41196,7 @@
       </c>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>920</v>
       </c>
@@ -40998,7 +41226,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>934</v>
       </c>
@@ -41028,7 +41256,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>926</v>
       </c>
@@ -41059,7 +41287,7 @@
       </c>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>939</v>
       </c>
@@ -41089,7 +41317,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>934</v>
       </c>
@@ -41119,7 +41347,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>934</v>
       </c>
@@ -41149,7 +41377,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>934</v>
       </c>
@@ -41179,7 +41407,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>944</v>
       </c>
@@ -41209,7 +41437,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>939</v>
       </c>
@@ -41239,7 +41467,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>947</v>
       </c>
@@ -41269,7 +41497,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>926</v>
       </c>
@@ -41299,7 +41527,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>926</v>
       </c>
@@ -41329,7 +41557,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>953</v>
       </c>
@@ -41359,7 +41587,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>953</v>
       </c>
@@ -41390,7 +41618,7 @@
       </c>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>956</v>
       </c>
@@ -41420,7 +41648,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>920</v>
       </c>
@@ -41450,7 +41678,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>959</v>
       </c>
@@ -41480,9 +41708,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15"/>
-    <row r="45" spans="1:10" ht="15"/>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>961</v>
       </c>
@@ -41491,7 +41717,7 @@
         <v>33313.224761833022</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>962</v>
       </c>
@@ -41500,8 +41726,6 @@
         <v>36626.726753846684</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15"/>
-    <row r="49" ht="15"/>
   </sheetData>
   <autoFilter ref="A4:J4" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J42">
@@ -41535,12 +41759,12 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>963</v>
       </c>
@@ -41644,7 +41868,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>964</v>
       </c>
@@ -41781,7 +42005,7 @@
         <v>26430.806440973112</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>965</v>
       </c>
@@ -41918,7 +42142,7 @@
         <v>34818.203389830509</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>966</v>
       </c>
@@ -42055,7 +42279,7 @@
         <v>28870.218644067798</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>967</v>
       </c>
@@ -42192,7 +42416,7 @@
         <v>32359.52598870056</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>968</v>
       </c>
@@ -42330,7 +42554,7 @@
       </c>
       <c r="AI6" s="5"/>
     </row>
-    <row r="7" spans="1:35" ht="15">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -42467,7 +42691,7 @@
         <v>43031.811864406787</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -42625,14 +42849,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -42739,7 +42963,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -42848,7 +43072,7 @@
         <v>65178</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -42957,7 +43181,7 @@
         <v>54550</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -43066,7 +43290,7 @@
         <v>45516</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -43175,7 +43399,7 @@
         <v>50573</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -43284,7 +43508,7 @@
         <v>54844</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -43393,7 +43617,7 @@
         <v>57131</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -43523,12 +43747,12 @@
       <selection activeCell="C2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -43632,7 +43856,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>964</v>
       </c>
@@ -43738,7 +43962,7 @@
         <v>787140</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>965</v>
       </c>
@@ -43844,7 +44068,7 @@
         <v>563691</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>966</v>
       </c>
@@ -43950,7 +44174,7 @@
         <v>425813</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>967</v>
       </c>
@@ -44056,7 +44280,7 @@
         <v>425813</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>968</v>
       </c>
@@ -44162,7 +44386,7 @@
         <v>632408</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -44268,7 +44492,7 @@
         <v>549099</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -44395,14 +44619,14 @@
       <selection activeCell="C2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -44506,7 +44730,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -44615,7 +44839,7 @@
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
     </row>
-    <row r="3" spans="1:37" ht="15">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -44724,7 +44948,7 @@
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
     </row>
-    <row r="4" spans="1:37" ht="15">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -44833,7 +45057,7 @@
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
     </row>
-    <row r="5" spans="1:37" ht="15">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -44942,7 +45166,7 @@
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
     </row>
-    <row r="6" spans="1:37" ht="15">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -45051,7 +45275,7 @@
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
     </row>
-    <row r="7" spans="1:37" ht="15">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -45157,7 +45381,7 @@
         <v>222837</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -45284,7 +45508,7 @@
       <selection activeCell="C2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -45292,7 +45516,7 @@
     <col min="4" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -45396,7 +45620,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -45502,7 +45726,7 @@
         <v>119848199</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -45608,7 +45832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -45714,7 +45938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -45820,7 +46044,7 @@
         <v>64833333.329999998</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -45926,7 +46150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -46032,7 +46256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -46159,7 +46383,7 @@
       <selection activeCell="C2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -46167,7 +46391,7 @@
     <col min="4" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -46271,7 +46495,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -46377,7 +46601,7 @@
         <v>119848199</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -46483,7 +46707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -46589,7 +46813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -46695,7 +46919,7 @@
         <v>64833333.329999998</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -46801,7 +47025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -46907,7 +47131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -47024,12 +47248,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47279,30 +47511,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36242D0F-E477-4F4C-AB4F-0E396B9F0776}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6FEA4A-37AB-41B5-8166-B183A740E5D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCA25B1-F252-44A8-B2DF-3ADDFCBC6E1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCA25B1-F252-44A8-B2DF-3ADDFCBC6E1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6FEA4A-37AB-41B5-8166-B183A740E5D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36242D0F-E477-4F4C-AB4F-0E396B9F0776}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
+++ b/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-Canada - Clean\InputData\trans\BNVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\BNVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="672" documentId="11_FACBBA7829B73184CDA2BE1D97E0DF2AA138A21D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF34F387-04C7-42BC-B4DB-57F79B9B46DC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0359AD-0EE0-4B09-9638-73EF691758A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" tabRatio="762" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="762" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3007,7 +3007,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3264,7 +3264,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3312,9 +3312,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3682,23 +3679,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="56.28515625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3706,486 +3703,486 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="57">
+    <row r="39" spans="2:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <v>2012</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="28.5">
+    <row r="45" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <v>2014</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.5">
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.5">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0.97099999999999997</v>
       </c>
@@ -4193,7 +4190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0.98699999999999999</v>
       </c>
@@ -4201,7 +4198,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0.95299999999999996</v>
       </c>
@@ -4209,7 +4206,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="18">
         <v>0.97099999999999997</v>
       </c>
@@ -4217,17 +4214,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1.0307117464753821</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1.302157</v>
       </c>
@@ -4243,12 +4240,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>1/1.18</f>
         <v>0.84745762711864414</v>
@@ -4257,22 +4254,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -4302,16 +4299,16 @@
   </sheetPr>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -4415,7 +4412,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -4521,7 +4518,7 @@
         <v>4166667</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -4627,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -4733,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -4839,7 +4836,7 @@
         <v>2245137.0389999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -4945,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -5051,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -5174,16 +5171,16 @@
   </sheetPr>
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -5287,7 +5284,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -5393,7 +5390,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -5499,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -5711,7 +5708,7 @@
         <v>2694164.4470000002</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -5817,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -6029,7 +6026,7 @@
         <v>5497544</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
     </row>
   </sheetData>
@@ -6049,18 +6046,18 @@
   </sheetPr>
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -6164,7 +6161,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -6270,7 +6267,7 @@
         <v>55457</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -6376,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -6482,7 +6479,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -6588,7 +6585,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -6694,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -6800,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -6906,7 +6903,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
     </row>
   </sheetData>
@@ -6926,123 +6923,123 @@
   </sheetPr>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
-      <c r="B1" s="37">
+      <c r="B1" s="33">
         <v>2018</v>
       </c>
-      <c r="C1" s="37">
+      <c r="C1" s="33">
         <v>2019</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="22">
         <v>2020</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="22">
         <v>2021</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="22">
         <v>2022</v>
       </c>
-      <c r="G1" s="38">
+      <c r="G1" s="22">
         <v>2023</v>
       </c>
-      <c r="H1" s="38">
+      <c r="H1" s="22">
         <v>2024</v>
       </c>
-      <c r="I1" s="38">
+      <c r="I1" s="22">
         <v>2025</v>
       </c>
-      <c r="J1" s="38">
+      <c r="J1" s="22">
         <v>2026</v>
       </c>
-      <c r="K1" s="38">
+      <c r="K1" s="22">
         <v>2027</v>
       </c>
-      <c r="L1" s="38">
+      <c r="L1" s="22">
         <v>2028</v>
       </c>
-      <c r="M1" s="38">
+      <c r="M1" s="22">
         <v>2029</v>
       </c>
-      <c r="N1" s="38">
+      <c r="N1" s="22">
         <v>2030</v>
       </c>
-      <c r="O1" s="38">
+      <c r="O1" s="22">
         <v>2031</v>
       </c>
-      <c r="P1" s="38">
+      <c r="P1" s="22">
         <v>2032</v>
       </c>
-      <c r="Q1" s="38">
+      <c r="Q1" s="22">
         <v>2033</v>
       </c>
-      <c r="R1" s="38">
+      <c r="R1" s="22">
         <v>2034</v>
       </c>
-      <c r="S1" s="38">
+      <c r="S1" s="22">
         <v>2035</v>
       </c>
-      <c r="T1" s="38">
+      <c r="T1" s="22">
         <v>2036</v>
       </c>
-      <c r="U1" s="38">
+      <c r="U1" s="22">
         <v>2037</v>
       </c>
-      <c r="V1" s="38">
+      <c r="V1" s="22">
         <v>2038</v>
       </c>
-      <c r="W1" s="38">
+      <c r="W1" s="22">
         <v>2039</v>
       </c>
-      <c r="X1" s="38">
+      <c r="X1" s="22">
         <v>2040</v>
       </c>
-      <c r="Y1" s="38">
+      <c r="Y1" s="22">
         <v>2041</v>
       </c>
-      <c r="Z1" s="38">
+      <c r="Z1" s="22">
         <v>2042</v>
       </c>
-      <c r="AA1" s="38">
+      <c r="AA1" s="22">
         <v>2043</v>
       </c>
-      <c r="AB1" s="38">
+      <c r="AB1" s="22">
         <v>2044</v>
       </c>
-      <c r="AC1" s="38">
+      <c r="AC1" s="22">
         <v>2045</v>
       </c>
-      <c r="AD1" s="38">
+      <c r="AD1" s="22">
         <v>2046</v>
       </c>
-      <c r="AE1" s="38">
+      <c r="AE1" s="22">
         <v>2047</v>
       </c>
-      <c r="AF1" s="38">
+      <c r="AF1" s="22">
         <v>2048</v>
       </c>
-      <c r="AG1" s="38">
+      <c r="AG1" s="22">
         <v>2049</v>
       </c>
-      <c r="AH1" s="38">
+      <c r="AH1" s="22">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
       <c r="B2" s="36" cm="1">
@@ -7053,102 +7050,102 @@
         <f t="array" ref="C2">TREND($D2:$H2,$D$1:$H$1,C$1)</f>
         <v>18485583</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="22">
         <v>18485583</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="22">
         <v>18485583</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="22">
         <v>18485583</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="22">
         <v>18485583</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="22">
         <v>18485583</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="22">
         <v>18485583</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="22">
         <v>18485583</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="22">
         <v>18485583</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="22">
         <v>18485583</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="22">
         <v>18485583</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="22">
         <v>18485583</v>
       </c>
-      <c r="O2" s="38">
+      <c r="O2" s="22">
         <v>18485583</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="22">
         <v>18485583</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="22">
         <v>18485583</v>
       </c>
-      <c r="R2" s="38">
+      <c r="R2" s="22">
         <v>18485583</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="22">
         <v>18485583</v>
       </c>
-      <c r="T2" s="38">
+      <c r="T2" s="22">
         <v>18485583</v>
       </c>
-      <c r="U2" s="38">
+      <c r="U2" s="22">
         <v>18485583</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="22">
         <v>18485583</v>
       </c>
-      <c r="W2" s="38">
+      <c r="W2" s="22">
         <v>18485583</v>
       </c>
-      <c r="X2" s="38">
+      <c r="X2" s="22">
         <v>18485583</v>
       </c>
-      <c r="Y2" s="38">
+      <c r="Y2" s="22">
         <v>18485583</v>
       </c>
-      <c r="Z2" s="38">
+      <c r="Z2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AA2" s="38">
+      <c r="AA2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AB2" s="38">
+      <c r="AB2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AC2" s="38">
+      <c r="AC2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AD2" s="38">
+      <c r="AD2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AE2" s="38">
+      <c r="AE2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AF2" s="38">
+      <c r="AF2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AG2" s="38">
+      <c r="AG2" s="22">
         <v>18485583</v>
       </c>
-      <c r="AH2" s="38">
+      <c r="AH2" s="22">
         <v>18485583</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
       <c r="B3" s="36" cm="1">
@@ -7159,102 +7156,102 @@
         <f t="array" ref="C3">TREND($D3:$H3,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="38">
-        <v>0</v>
-      </c>
-      <c r="E3" s="38">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38">
-        <v>0</v>
-      </c>
-      <c r="J3" s="38">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38">
-        <v>0</v>
-      </c>
-      <c r="L3" s="38">
-        <v>0</v>
-      </c>
-      <c r="M3" s="38">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38">
-        <v>0</v>
-      </c>
-      <c r="O3" s="38">
-        <v>0</v>
-      </c>
-      <c r="P3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="38">
-        <v>0</v>
-      </c>
-      <c r="R3" s="38">
-        <v>0</v>
-      </c>
-      <c r="S3" s="38">
-        <v>0</v>
-      </c>
-      <c r="T3" s="38">
-        <v>0</v>
-      </c>
-      <c r="U3" s="38">
-        <v>0</v>
-      </c>
-      <c r="V3" s="38">
-        <v>0</v>
-      </c>
-      <c r="W3" s="38">
-        <v>0</v>
-      </c>
-      <c r="X3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15">
-      <c r="A4" s="38" t="s">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22">
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0</v>
+      </c>
+      <c r="V3" s="22">
+        <v>0</v>
+      </c>
+      <c r="W3" s="22">
+        <v>0</v>
+      </c>
+      <c r="X3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
       <c r="B4" s="36" cm="1">
@@ -7265,102 +7262,102 @@
         <f t="array" ref="C4">TREND($D4:$H4,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="38">
-        <v>0</v>
-      </c>
-      <c r="E4" s="38">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38">
-        <v>0</v>
-      </c>
-      <c r="G4" s="38">
-        <v>0</v>
-      </c>
-      <c r="H4" s="38">
-        <v>0</v>
-      </c>
-      <c r="I4" s="38">
-        <v>0</v>
-      </c>
-      <c r="J4" s="38">
-        <v>0</v>
-      </c>
-      <c r="K4" s="38">
-        <v>0</v>
-      </c>
-      <c r="L4" s="38">
-        <v>0</v>
-      </c>
-      <c r="M4" s="38">
-        <v>0</v>
-      </c>
-      <c r="N4" s="38">
-        <v>0</v>
-      </c>
-      <c r="O4" s="38">
-        <v>0</v>
-      </c>
-      <c r="P4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="38">
-        <v>0</v>
-      </c>
-      <c r="R4" s="38">
-        <v>0</v>
-      </c>
-      <c r="S4" s="38">
-        <v>0</v>
-      </c>
-      <c r="T4" s="38">
-        <v>0</v>
-      </c>
-      <c r="U4" s="38">
-        <v>0</v>
-      </c>
-      <c r="V4" s="38">
-        <v>0</v>
-      </c>
-      <c r="W4" s="38">
-        <v>0</v>
-      </c>
-      <c r="X4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15">
-      <c r="A5" s="38" t="s">
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0</v>
+      </c>
+      <c r="S4" s="22">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22">
+        <v>0</v>
+      </c>
+      <c r="V4" s="22">
+        <v>0</v>
+      </c>
+      <c r="W4" s="22">
+        <v>0</v>
+      </c>
+      <c r="X4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
       <c r="B5" s="36" cm="1">
@@ -7371,102 +7368,102 @@
         <f t="array" ref="C5">TREND($D5:$H5,$D$1:$H$1,C$1)</f>
         <v>10000000</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="34">
         <v>10000000</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="22">
         <v>10000000</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="22">
         <v>10000000</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="22">
         <v>10000000</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="22">
         <v>10000000</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="22">
         <v>10000000</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="22">
         <v>10000000</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="22">
         <v>10000000</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="22">
         <v>10000000</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="22">
         <v>10000000</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="22">
         <v>10000000</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="22">
         <v>10000000</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="22">
         <v>10000000</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="22">
         <v>10000000</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="22">
         <v>10000000</v>
       </c>
-      <c r="S5" s="38">
+      <c r="S5" s="22">
         <v>10000000</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="22">
         <v>10000000</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="22">
         <v>10000000</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="22">
         <v>10000000</v>
       </c>
-      <c r="W5" s="38">
+      <c r="W5" s="22">
         <v>10000000</v>
       </c>
-      <c r="X5" s="38">
+      <c r="X5" s="22">
         <v>10000000</v>
       </c>
-      <c r="Y5" s="38">
+      <c r="Y5" s="22">
         <v>10000000</v>
       </c>
-      <c r="Z5" s="38">
+      <c r="Z5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AA5" s="38">
+      <c r="AA5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AB5" s="38">
+      <c r="AB5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AC5" s="38">
+      <c r="AC5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AD5" s="38">
+      <c r="AD5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AE5" s="38">
+      <c r="AE5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AF5" s="38">
+      <c r="AF5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AG5" s="38">
+      <c r="AG5" s="22">
         <v>10000000</v>
       </c>
-      <c r="AH5" s="38">
+      <c r="AH5" s="22">
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
       <c r="B6" s="36" cm="1">
@@ -7477,102 +7474,102 @@
         <f t="array" ref="C6">TREND($D6:$H6,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="38">
-        <v>0</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
-        <v>0</v>
-      </c>
-      <c r="J6" s="38">
-        <v>0</v>
-      </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="L6" s="38">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38">
-        <v>0</v>
-      </c>
-      <c r="N6" s="38">
-        <v>0</v>
-      </c>
-      <c r="O6" s="38">
-        <v>0</v>
-      </c>
-      <c r="P6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="38">
-        <v>0</v>
-      </c>
-      <c r="R6" s="38">
-        <v>0</v>
-      </c>
-      <c r="S6" s="38">
-        <v>0</v>
-      </c>
-      <c r="T6" s="38">
-        <v>0</v>
-      </c>
-      <c r="U6" s="38">
-        <v>0</v>
-      </c>
-      <c r="V6" s="38">
-        <v>0</v>
-      </c>
-      <c r="W6" s="38">
-        <v>0</v>
-      </c>
-      <c r="X6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="15">
-      <c r="A7" s="38" t="s">
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>0</v>
+      </c>
+      <c r="X6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
       <c r="B7" s="36" cm="1">
@@ -7583,102 +7580,102 @@
         <f t="array" ref="C7">TREND($D7:$H7,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="38">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
-        <v>0</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0</v>
-      </c>
-      <c r="H7" s="38">
-        <v>0</v>
-      </c>
-      <c r="I7" s="38">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38">
-        <v>0</v>
-      </c>
-      <c r="K7" s="38">
-        <v>0</v>
-      </c>
-      <c r="L7" s="38">
-        <v>0</v>
-      </c>
-      <c r="M7" s="38">
-        <v>0</v>
-      </c>
-      <c r="N7" s="38">
-        <v>0</v>
-      </c>
-      <c r="O7" s="38">
-        <v>0</v>
-      </c>
-      <c r="P7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="38">
-        <v>0</v>
-      </c>
-      <c r="R7" s="38">
-        <v>0</v>
-      </c>
-      <c r="S7" s="38">
-        <v>0</v>
-      </c>
-      <c r="T7" s="38">
-        <v>0</v>
-      </c>
-      <c r="U7" s="38">
-        <v>0</v>
-      </c>
-      <c r="V7" s="38">
-        <v>0</v>
-      </c>
-      <c r="W7" s="38">
-        <v>0</v>
-      </c>
-      <c r="X7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="15">
-      <c r="A8" s="38" t="s">
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0</v>
+      </c>
+      <c r="X7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
       <c r="B8" s="36" cm="1">
@@ -7689,97 +7686,97 @@
         <f t="array" ref="C8">TREND($D8:$H8,$D$1:$H$1,C$1)</f>
         <v>21995073.300000072</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="22">
         <v>21622802</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="22">
         <v>21145383</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="22">
         <v>20734919</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="22">
         <v>20371712</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="22">
         <v>19964181</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="22">
         <v>19554682</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="22">
         <v>19178638</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="22">
         <v>18847575</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="22">
         <v>18529905</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="22">
         <v>18227583</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="22">
         <v>17941459</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="22">
         <v>17663658</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="22">
         <v>17402951</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="22">
         <v>17153247</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="22">
         <v>16910180</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="22">
         <v>16674399</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="22">
         <v>16452237</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="22">
         <v>16240118</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="22">
         <v>16037451</v>
       </c>
-      <c r="W8" s="38">
+      <c r="W8" s="22">
         <v>15843834</v>
       </c>
-      <c r="X8" s="38">
+      <c r="X8" s="22">
         <v>15660470</v>
       </c>
-      <c r="Y8" s="38">
+      <c r="Y8" s="22">
         <v>15485650</v>
       </c>
-      <c r="Z8" s="38">
+      <c r="Z8" s="22">
         <v>15318639</v>
       </c>
-      <c r="AA8" s="38">
+      <c r="AA8" s="22">
         <v>15160212</v>
       </c>
-      <c r="AB8" s="38">
+      <c r="AB8" s="22">
         <v>15008910</v>
       </c>
-      <c r="AC8" s="38">
+      <c r="AC8" s="22">
         <v>14864979</v>
       </c>
-      <c r="AD8" s="38">
+      <c r="AD8" s="22">
         <v>14726530</v>
       </c>
-      <c r="AE8" s="38">
+      <c r="AE8" s="22">
         <v>14595632</v>
       </c>
-      <c r="AF8" s="38">
+      <c r="AF8" s="22">
         <v>14470507</v>
       </c>
-      <c r="AG8" s="38">
+      <c r="AG8" s="22">
         <v>14352157</v>
       </c>
-      <c r="AH8" s="38">
+      <c r="AH8" s="22">
         <v>14232948</v>
       </c>
     </row>
@@ -7800,132 +7797,123 @@
   </sheetPr>
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
-      <c r="B1" s="37">
+      <c r="B1" s="33">
         <v>2018</v>
       </c>
-      <c r="C1" s="37">
+      <c r="C1" s="33">
         <v>2019</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="22">
         <v>2020</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="22">
         <v>2021</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="22">
         <v>2022</v>
       </c>
-      <c r="G1" s="38">
+      <c r="G1" s="22">
         <v>2023</v>
       </c>
-      <c r="H1" s="38">
+      <c r="H1" s="22">
         <v>2024</v>
       </c>
-      <c r="I1" s="38">
+      <c r="I1" s="22">
         <v>2025</v>
       </c>
-      <c r="J1" s="38">
+      <c r="J1" s="22">
         <v>2026</v>
       </c>
-      <c r="K1" s="38">
+      <c r="K1" s="22">
         <v>2027</v>
       </c>
-      <c r="L1" s="38">
+      <c r="L1" s="22">
         <v>2028</v>
       </c>
-      <c r="M1" s="38">
+      <c r="M1" s="22">
         <v>2029</v>
       </c>
-      <c r="N1" s="38">
+      <c r="N1" s="22">
         <v>2030</v>
       </c>
-      <c r="O1" s="38">
+      <c r="O1" s="22">
         <v>2031</v>
       </c>
-      <c r="P1" s="38">
+      <c r="P1" s="22">
         <v>2032</v>
       </c>
-      <c r="Q1" s="38">
+      <c r="Q1" s="22">
         <v>2033</v>
       </c>
-      <c r="R1" s="38">
+      <c r="R1" s="22">
         <v>2034</v>
       </c>
-      <c r="S1" s="38">
+      <c r="S1" s="22">
         <v>2035</v>
       </c>
-      <c r="T1" s="38">
+      <c r="T1" s="22">
         <v>2036</v>
       </c>
-      <c r="U1" s="38">
+      <c r="U1" s="22">
         <v>2037</v>
       </c>
-      <c r="V1" s="38">
+      <c r="V1" s="22">
         <v>2038</v>
       </c>
-      <c r="W1" s="38">
+      <c r="W1" s="22">
         <v>2039</v>
       </c>
-      <c r="X1" s="38">
+      <c r="X1" s="22">
         <v>2040</v>
       </c>
-      <c r="Y1" s="38">
+      <c r="Y1" s="22">
         <v>2041</v>
       </c>
-      <c r="Z1" s="38">
+      <c r="Z1" s="22">
         <v>2042</v>
       </c>
-      <c r="AA1" s="38">
+      <c r="AA1" s="22">
         <v>2043</v>
       </c>
-      <c r="AB1" s="38">
+      <c r="AB1" s="22">
         <v>2044</v>
       </c>
-      <c r="AC1" s="38">
+      <c r="AC1" s="22">
         <v>2045</v>
       </c>
-      <c r="AD1" s="38">
+      <c r="AD1" s="22">
         <v>2046</v>
       </c>
-      <c r="AE1" s="38">
+      <c r="AE1" s="22">
         <v>2047</v>
       </c>
-      <c r="AF1" s="38">
+      <c r="AF1" s="22">
         <v>2048</v>
       </c>
-      <c r="AG1" s="38">
+      <c r="AG1" s="22">
         <v>2049</v>
       </c>
-      <c r="AH1" s="38">
+      <c r="AH1" s="22">
         <v>2050</v>
       </c>
-      <c r="AI1">
-        <v>2048</v>
-      </c>
-      <c r="AJ1">
-        <v>2049</v>
-      </c>
-      <c r="AK1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="15">
-      <c r="A2" s="38" t="s">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
       <c r="B2" s="36" cm="1">
@@ -7936,114 +7924,105 @@
         <f t="array" ref="C2">TREND($D2:$H2,$D$1:$H$1,C$1)</f>
         <v>13157</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="22">
         <v>13157</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="22">
         <v>13157</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="22">
         <v>13157</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="22">
         <v>13157</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="22">
         <v>13157</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="22">
         <v>13157</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="22">
         <v>13157</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="22">
         <v>13157</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="22">
         <v>13157</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="22">
         <v>13157</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="22">
         <v>13157</v>
       </c>
-      <c r="O2" s="38">
+      <c r="O2" s="22">
         <v>13157</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="22">
         <v>13157</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="22">
         <v>13157</v>
       </c>
-      <c r="R2" s="38">
+      <c r="R2" s="22">
         <v>13157</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="22">
         <v>13157</v>
       </c>
-      <c r="T2" s="38">
+      <c r="T2" s="22">
         <v>13157</v>
       </c>
-      <c r="U2" s="38">
+      <c r="U2" s="22">
         <v>13157</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="22">
         <v>13157</v>
       </c>
-      <c r="W2" s="38">
+      <c r="W2" s="22">
         <v>13157</v>
       </c>
-      <c r="X2" s="38">
+      <c r="X2" s="22">
         <v>13157</v>
       </c>
-      <c r="Y2" s="38">
+      <c r="Y2" s="22">
         <v>13157</v>
       </c>
-      <c r="Z2" s="38">
+      <c r="Z2" s="22">
         <v>13157</v>
       </c>
-      <c r="AA2" s="38">
+      <c r="AA2" s="22">
         <v>13157</v>
       </c>
-      <c r="AB2" s="38">
+      <c r="AB2" s="22">
         <v>13157</v>
       </c>
-      <c r="AC2" s="38">
+      <c r="AC2" s="22">
         <v>13157</v>
       </c>
-      <c r="AD2" s="38">
+      <c r="AD2" s="22">
         <v>13157</v>
       </c>
-      <c r="AE2" s="38">
+      <c r="AE2" s="22">
         <v>13157</v>
       </c>
-      <c r="AF2" s="38">
+      <c r="AF2" s="22">
         <v>13157</v>
       </c>
-      <c r="AG2" s="38">
+      <c r="AG2" s="22">
         <v>13157</v>
       </c>
-      <c r="AH2" s="38">
+      <c r="AH2" s="22">
         <v>13157</v>
       </c>
-      <c r="AI2" s="5">
-        <f>AI4*('BNVP-LDVs-psgr'!AF2/'BNVP-LDVs-psgr'!AF4)</f>
-        <v>8258.6378867785625</v>
-      </c>
-      <c r="AJ2" s="5">
-        <f>AJ4*('BNVP-LDVs-psgr'!AG2/'BNVP-LDVs-psgr'!AG4)</f>
-        <v>8239.1784963324098</v>
-      </c>
-      <c r="AK2" s="5">
-        <f>AK4*('BNVP-LDVs-psgr'!AH2/'BNVP-LDVs-psgr'!AH4)</f>
-        <v>8221.2277214155602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="15">
-      <c r="A3" s="38" t="s">
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
       <c r="B3" s="36" cm="1">
@@ -8054,111 +8033,102 @@
         <f t="array" ref="C3">TREND($D3:$H3,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="38">
-        <v>0</v>
-      </c>
-      <c r="E3" s="38">
-        <v>0</v>
-      </c>
-      <c r="F3" s="38">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38">
-        <v>0</v>
-      </c>
-      <c r="J3" s="38">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38">
-        <v>0</v>
-      </c>
-      <c r="L3" s="38">
-        <v>0</v>
-      </c>
-      <c r="M3" s="38">
-        <v>0</v>
-      </c>
-      <c r="N3" s="38">
-        <v>0</v>
-      </c>
-      <c r="O3" s="38">
-        <v>0</v>
-      </c>
-      <c r="P3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="38">
-        <v>0</v>
-      </c>
-      <c r="R3" s="38">
-        <v>0</v>
-      </c>
-      <c r="S3" s="38">
-        <v>0</v>
-      </c>
-      <c r="T3" s="38">
-        <v>0</v>
-      </c>
-      <c r="U3" s="38">
-        <v>0</v>
-      </c>
-      <c r="V3" s="38">
-        <v>0</v>
-      </c>
-      <c r="W3" s="38">
-        <v>0</v>
-      </c>
-      <c r="X3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="38">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="15">
-      <c r="A4" s="38" t="s">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22">
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0</v>
+      </c>
+      <c r="V3" s="22">
+        <v>0</v>
+      </c>
+      <c r="W3" s="22">
+        <v>0</v>
+      </c>
+      <c r="X3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
       <c r="B4" s="36" cm="1">
@@ -8169,114 +8139,105 @@
         <f t="array" ref="C4">TREND($D4:$H4,$D$1:$H$1,C$1)</f>
         <v>8980</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="34">
         <v>8980</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="22">
         <v>8980</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="22">
         <v>8980</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="22">
         <v>8980</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="22">
         <v>8980</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="22">
         <v>8980</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="22">
         <v>8980</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="22">
         <v>8980</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="22">
         <v>8980</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="22">
         <v>8980</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="22">
         <v>8980</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="22">
         <v>8980</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="22">
         <v>8980</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="22">
         <v>8980</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R4" s="22">
         <v>8980</v>
       </c>
-      <c r="S4" s="38">
+      <c r="S4" s="22">
         <v>8980</v>
       </c>
-      <c r="T4" s="38">
+      <c r="T4" s="22">
         <v>8980</v>
       </c>
-      <c r="U4" s="38">
+      <c r="U4" s="22">
         <v>8980</v>
       </c>
-      <c r="V4" s="38">
+      <c r="V4" s="22">
         <v>8980</v>
       </c>
-      <c r="W4" s="38">
+      <c r="W4" s="22">
         <v>8980</v>
       </c>
-      <c r="X4" s="38">
+      <c r="X4" s="22">
         <v>8980</v>
       </c>
-      <c r="Y4" s="38">
+      <c r="Y4" s="22">
         <v>8980</v>
       </c>
-      <c r="Z4" s="38">
+      <c r="Z4" s="22">
         <v>8980</v>
       </c>
-      <c r="AA4" s="38">
+      <c r="AA4" s="22">
         <v>8980</v>
       </c>
-      <c r="AB4" s="38">
+      <c r="AB4" s="22">
         <v>8980</v>
       </c>
-      <c r="AC4" s="38">
+      <c r="AC4" s="22">
         <v>8980</v>
       </c>
-      <c r="AD4" s="38">
+      <c r="AD4" s="22">
         <v>8980</v>
       </c>
-      <c r="AE4" s="38">
+      <c r="AE4" s="22">
         <v>8980</v>
       </c>
-      <c r="AF4" s="38">
+      <c r="AF4" s="22">
         <v>8980</v>
       </c>
-      <c r="AG4" s="38">
+      <c r="AG4" s="22">
         <v>8980</v>
       </c>
-      <c r="AH4" s="38">
+      <c r="AH4" s="22">
         <v>8980</v>
       </c>
-      <c r="AI4" s="5">
-        <f>$D4</f>
-        <v>8980</v>
-      </c>
-      <c r="AJ4" s="5">
-        <f>$D4</f>
-        <v>8980</v>
-      </c>
-      <c r="AK4" s="5">
-        <f>$D4</f>
-        <v>8980</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="15">
-      <c r="A5" s="38" t="s">
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
       <c r="B5" s="36" cm="1">
@@ -8287,111 +8248,102 @@
         <f t="array" ref="C5">TREND($D5:$H5,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="38">
-        <v>0</v>
-      </c>
-      <c r="E5" s="38">
-        <v>0</v>
-      </c>
-      <c r="F5" s="38">
-        <v>0</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0</v>
-      </c>
-      <c r="H5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="38">
-        <v>0</v>
-      </c>
-      <c r="J5" s="38">
-        <v>0</v>
-      </c>
-      <c r="K5" s="38">
-        <v>0</v>
-      </c>
-      <c r="L5" s="38">
-        <v>0</v>
-      </c>
-      <c r="M5" s="38">
-        <v>0</v>
-      </c>
-      <c r="N5" s="38">
-        <v>0</v>
-      </c>
-      <c r="O5" s="38">
-        <v>0</v>
-      </c>
-      <c r="P5" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="38">
-        <v>0</v>
-      </c>
-      <c r="R5" s="38">
-        <v>0</v>
-      </c>
-      <c r="S5" s="38">
-        <v>0</v>
-      </c>
-      <c r="T5" s="38">
-        <v>0</v>
-      </c>
-      <c r="U5" s="38">
-        <v>0</v>
-      </c>
-      <c r="V5" s="38">
-        <v>0</v>
-      </c>
-      <c r="W5" s="38">
-        <v>0</v>
-      </c>
-      <c r="X5" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="38">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="15">
-      <c r="A6" s="38" t="s">
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22">
+        <v>0</v>
+      </c>
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0</v>
+      </c>
+      <c r="S5" s="22">
+        <v>0</v>
+      </c>
+      <c r="T5" s="22">
+        <v>0</v>
+      </c>
+      <c r="U5" s="22">
+        <v>0</v>
+      </c>
+      <c r="V5" s="22">
+        <v>0</v>
+      </c>
+      <c r="W5" s="22">
+        <v>0</v>
+      </c>
+      <c r="X5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
       <c r="B6" s="36" cm="1">
@@ -8402,111 +8354,102 @@
         <f t="array" ref="C6">TREND($D6:$H6,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="38">
-        <v>0</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
-        <v>0</v>
-      </c>
-      <c r="J6" s="38">
-        <v>0</v>
-      </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="L6" s="38">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38">
-        <v>0</v>
-      </c>
-      <c r="N6" s="38">
-        <v>0</v>
-      </c>
-      <c r="O6" s="38">
-        <v>0</v>
-      </c>
-      <c r="P6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="38">
-        <v>0</v>
-      </c>
-      <c r="R6" s="38">
-        <v>0</v>
-      </c>
-      <c r="S6" s="38">
-        <v>0</v>
-      </c>
-      <c r="T6" s="38">
-        <v>0</v>
-      </c>
-      <c r="U6" s="38">
-        <v>0</v>
-      </c>
-      <c r="V6" s="38">
-        <v>0</v>
-      </c>
-      <c r="W6" s="38">
-        <v>0</v>
-      </c>
-      <c r="X6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="38">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="15">
-      <c r="A7" s="38" t="s">
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
+        <v>0</v>
+      </c>
+      <c r="U6" s="22">
+        <v>0</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>0</v>
+      </c>
+      <c r="X6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
       <c r="B7" s="36" cm="1">
@@ -8517,111 +8460,102 @@
         <f t="array" ref="C7">TREND($D7:$H7,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="38">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
-        <v>0</v>
-      </c>
-      <c r="F7" s="38">
-        <v>0</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0</v>
-      </c>
-      <c r="H7" s="38">
-        <v>0</v>
-      </c>
-      <c r="I7" s="38">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38">
-        <v>0</v>
-      </c>
-      <c r="K7" s="38">
-        <v>0</v>
-      </c>
-      <c r="L7" s="38">
-        <v>0</v>
-      </c>
-      <c r="M7" s="38">
-        <v>0</v>
-      </c>
-      <c r="N7" s="38">
-        <v>0</v>
-      </c>
-      <c r="O7" s="38">
-        <v>0</v>
-      </c>
-      <c r="P7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="38">
-        <v>0</v>
-      </c>
-      <c r="R7" s="38">
-        <v>0</v>
-      </c>
-      <c r="S7" s="38">
-        <v>0</v>
-      </c>
-      <c r="T7" s="38">
-        <v>0</v>
-      </c>
-      <c r="U7" s="38">
-        <v>0</v>
-      </c>
-      <c r="V7" s="38">
-        <v>0</v>
-      </c>
-      <c r="W7" s="38">
-        <v>0</v>
-      </c>
-      <c r="X7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" ht="15">
-      <c r="A8" s="38" t="s">
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0</v>
+      </c>
+      <c r="X7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
       <c r="B8" s="36" cm="1">
@@ -8632,110 +8566,101 @@
         <f t="array" ref="C8">TREND($D8:$H8,$D$1:$H$1,C$1)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="38">
-        <v>0</v>
-      </c>
-      <c r="E8" s="38">
-        <v>0</v>
-      </c>
-      <c r="F8" s="38">
-        <v>0</v>
-      </c>
-      <c r="G8" s="38">
-        <v>0</v>
-      </c>
-      <c r="H8" s="38">
-        <v>0</v>
-      </c>
-      <c r="I8" s="38">
-        <v>0</v>
-      </c>
-      <c r="J8" s="38">
-        <v>0</v>
-      </c>
-      <c r="K8" s="38">
-        <v>0</v>
-      </c>
-      <c r="L8" s="38">
-        <v>0</v>
-      </c>
-      <c r="M8" s="38">
-        <v>0</v>
-      </c>
-      <c r="N8" s="38">
-        <v>0</v>
-      </c>
-      <c r="O8" s="38">
-        <v>0</v>
-      </c>
-      <c r="P8" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="38">
-        <v>0</v>
-      </c>
-      <c r="R8" s="38">
-        <v>0</v>
-      </c>
-      <c r="S8" s="38">
-        <v>0</v>
-      </c>
-      <c r="T8" s="38">
-        <v>0</v>
-      </c>
-      <c r="U8" s="38">
-        <v>0</v>
-      </c>
-      <c r="V8" s="38">
-        <v>0</v>
-      </c>
-      <c r="W8" s="38">
-        <v>0</v>
-      </c>
-      <c r="X8" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="38">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="15">
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0</v>
+      </c>
+      <c r="U8" s="22">
+        <v>0</v>
+      </c>
+      <c r="V8" s="22">
+        <v>0</v>
+      </c>
+      <c r="W8" s="22">
+        <v>0</v>
+      </c>
+      <c r="X8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
     </row>
   </sheetData>
@@ -8755,17 +8680,17 @@
   </sheetPr>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
       <c r="B1">
@@ -8868,732 +8793,963 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B2</f>
+        <v>202039</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C2</f>
+        <v>202039</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D2</f>
+        <v>202039</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E2</f>
+        <v>202039</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F2</f>
+        <v>202039</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G2</f>
+        <v>202039</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H2</f>
+        <v>202039</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I2</f>
+        <v>202039</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J2</f>
+        <v>202039</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K2</f>
+        <v>202039</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L2</f>
+        <v>202039</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M2</f>
+        <v>202039</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N2</f>
+        <v>202039</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O2</f>
+        <v>202039</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P2</f>
+        <v>202039</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q2</f>
+        <v>202039</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R2</f>
+        <v>202039</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S2</f>
+        <v>202039</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T2</f>
+        <v>202039</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U2</f>
+        <v>202039</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V2</f>
+        <v>202039</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W2</f>
+        <v>202039</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X2</f>
+        <v>202039</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y2</f>
+        <v>202039</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z2</f>
+        <v>202039</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA2</f>
+        <v>202039</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB2</f>
+        <v>202039</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC2</f>
+        <v>202039</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD2</f>
+        <v>202039</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE2</f>
+        <v>202039</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF2</f>
+        <v>202039</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG2</f>
+        <v>202039</v>
       </c>
       <c r="AH2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="15">
-      <c r="A3" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH2</f>
+        <v>202039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B3</f>
+        <v>203078.59999999998</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C3</f>
+        <v>203375.09999999998</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D3</f>
+        <v>205176</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E3</f>
+        <v>202475</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F3</f>
+        <v>203455</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G3</f>
+        <v>204642</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H3</f>
+        <v>205575</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I3</f>
+        <v>206600</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J3</f>
+        <v>207655</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K3</f>
+        <v>207910</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L3</f>
+        <v>208276</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M3</f>
+        <v>208561</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N3</f>
+        <v>208592</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O3</f>
+        <v>209251</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P3</f>
+        <v>209441</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q3</f>
+        <v>209787</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R3</f>
+        <v>209913</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S3</f>
+        <v>210319</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T3</f>
+        <v>210446</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U3</f>
+        <v>210596</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V3</f>
+        <v>210769</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W3</f>
+        <v>211020</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X3</f>
+        <v>211156</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y3</f>
+        <v>211345</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z3</f>
+        <v>211555</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA3</f>
+        <v>211711</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB3</f>
+        <v>211870</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC3</f>
+        <v>212013</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD3</f>
+        <v>212242</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE3</f>
+        <v>212390</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF3</f>
+        <v>212590</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG3</f>
+        <v>212698</v>
       </c>
       <c r="AH3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15">
-      <c r="A4" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH3</f>
+        <v>212770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B4</f>
+        <v>110889</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C4</f>
+        <v>110889</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D4</f>
+        <v>110889</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E4</f>
+        <v>110889</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F4</f>
+        <v>110889</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G4</f>
+        <v>110889</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H4</f>
+        <v>110889</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I4</f>
+        <v>110889</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J4</f>
+        <v>110889</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K4</f>
+        <v>110889</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L4</f>
+        <v>110889</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M4</f>
+        <v>110889</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N4</f>
+        <v>110889</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O4</f>
+        <v>110889</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P4</f>
+        <v>110889</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q4</f>
+        <v>110889</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R4</f>
+        <v>110889</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S4</f>
+        <v>110889</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T4</f>
+        <v>110889</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U4</f>
+        <v>110889</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V4</f>
+        <v>110889</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W4</f>
+        <v>110889</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X4</f>
+        <v>110889</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y4</f>
+        <v>110889</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z4</f>
+        <v>110889</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA4</f>
+        <v>110889</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB4</f>
+        <v>110889</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC4</f>
+        <v>110889</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD4</f>
+        <v>110889</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE4</f>
+        <v>110889</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF4</f>
+        <v>110889</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG4</f>
+        <v>110889</v>
       </c>
       <c r="AH4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15">
-      <c r="A5" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH4</f>
+        <v>110889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B5</f>
+        <v>110889</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C5</f>
+        <v>110889</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D5</f>
+        <v>110889</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E5</f>
+        <v>110889</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F5</f>
+        <v>110889</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G5</f>
+        <v>110889</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H5</f>
+        <v>110889</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I5</f>
+        <v>110889</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J5</f>
+        <v>110889</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K5</f>
+        <v>110889</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L5</f>
+        <v>110889</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M5</f>
+        <v>110889</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N5</f>
+        <v>110889</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O5</f>
+        <v>110889</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P5</f>
+        <v>110889</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q5</f>
+        <v>110889</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R5</f>
+        <v>110889</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S5</f>
+        <v>110889</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T5</f>
+        <v>110889</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U5</f>
+        <v>110889</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V5</f>
+        <v>110889</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W5</f>
+        <v>110889</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X5</f>
+        <v>110889</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y5</f>
+        <v>110889</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z5</f>
+        <v>110889</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA5</f>
+        <v>110889</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB5</f>
+        <v>110889</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC5</f>
+        <v>110889</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD5</f>
+        <v>110889</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE5</f>
+        <v>110889</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF5</f>
+        <v>110889</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG5</f>
+        <v>110889</v>
       </c>
       <c r="AH5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="15">
-      <c r="A6" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH5</f>
+        <v>110889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B6</f>
+        <v>371980.80000000075</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C6</f>
+        <v>363671.60000000149</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D6</f>
+        <v>355098</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E6</f>
+        <v>347089</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F6</f>
+        <v>339047</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G6</f>
+        <v>330779</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H6</f>
+        <v>321707</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I6</f>
+        <v>315128</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J6</f>
+        <v>310225</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K6</f>
+        <v>306196</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L6</f>
+        <v>303009</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M6</f>
+        <v>300535</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N6</f>
+        <v>298586</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O6</f>
+        <v>297658</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P6</f>
+        <v>297480</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q6</f>
+        <v>298182</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R6</f>
+        <v>299406</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S6</f>
+        <v>301279</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T6</f>
+        <v>303605</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U6</f>
+        <v>306341</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V6</f>
+        <v>309461</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W6</f>
+        <v>313001</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X6</f>
+        <v>316869</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y6</f>
+        <v>321250</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z6</f>
+        <v>326150</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA6</f>
+        <v>331553</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB6</f>
+        <v>337474</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC6</f>
+        <v>343924</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD6</f>
+        <v>350979</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE6</f>
+        <v>358625</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF6</f>
+        <v>366933</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG6</f>
+        <v>375889</v>
       </c>
       <c r="AH6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="15">
-      <c r="A7" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH6</f>
+        <v>385454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B7</f>
+        <v>211237.39999999991</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C7</f>
+        <v>211977.29999999981</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D7</f>
+        <v>212745</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E7</f>
+        <v>213606</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F7</f>
+        <v>213984</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G7</f>
+        <v>214805</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H7</f>
+        <v>215845</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I7</f>
+        <v>216741</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J7</f>
+        <v>217684</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K7</f>
+        <v>218066</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L7</f>
+        <v>218365</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M7</f>
+        <v>218687</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N7</f>
+        <v>218951</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O7</f>
+        <v>219273</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P7</f>
+        <v>219572</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q7</f>
+        <v>219878</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R7</f>
+        <v>220073</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S7</f>
+        <v>220290</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T7</f>
+        <v>220490</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U7</f>
+        <v>220677</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V7</f>
+        <v>220858</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W7</f>
+        <v>221050</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X7</f>
+        <v>221230</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y7</f>
+        <v>221408</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z7</f>
+        <v>221591</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA7</f>
+        <v>221764</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB7</f>
+        <v>221932</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC7</f>
+        <v>222097</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD7</f>
+        <v>222269</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE7</f>
+        <v>222435</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF7</f>
+        <v>222612</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG7</f>
+        <v>222774</v>
       </c>
       <c r="AH7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="15">
-      <c r="A8" s="38" t="s">
+        <f>'BNVP-HDVs-frgt'!AH7</f>
+        <v>222837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!B8</f>
+        <v>447502.59999999963</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!C8</f>
+        <v>439331.5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!D8</f>
+        <v>431896</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!E8</f>
+        <v>422360</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!F8</f>
+        <v>414161</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!G8</f>
+        <v>406907</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!H8</f>
+        <v>398767</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!I8</f>
+        <v>390587</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!J8</f>
+        <v>383076</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!K8</f>
+        <v>376463</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!L8</f>
+        <v>370118</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!M8</f>
+        <v>364080</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!N8</f>
+        <v>358365</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!O8</f>
+        <v>352816</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!P8</f>
+        <v>347608</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Q8</f>
+        <v>342621</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!R8</f>
+        <v>337766</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!S8</f>
+        <v>333056</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!T8</f>
+        <v>328619</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!U8</f>
+        <v>324382</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!V8</f>
+        <v>320334</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!W8</f>
+        <v>316466</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!X8</f>
+        <v>312804</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Y8</f>
+        <v>309312</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!Z8</f>
+        <v>305976</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AA8</f>
+        <v>302812</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AB8</f>
+        <v>299790</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AC8</f>
+        <v>296915</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AD8</f>
+        <v>294149</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AE8</f>
+        <v>291535</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AF8</f>
+        <v>289035</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AG8</f>
+        <v>286672</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <f>'BNVP-HDVs-frgt'!AH8</f>
+        <v>284290</v>
       </c>
     </row>
   </sheetData>
@@ -9612,33 +9768,33 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:37" ht="15" customHeight="1">
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>103</v>
       </c>
@@ -9646,7 +9802,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15" customHeight="1">
+    <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
         <v>105</v>
@@ -9754,7 +9910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1">
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>109</v>
       </c>
@@ -9796,7 +9952,7 @@
       <c r="AJ9" s="24"/>
       <c r="AK9" s="24"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>111</v>
       </c>
@@ -9909,7 +10065,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>116</v>
       </c>
@@ -10022,7 +10178,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -10135,7 +10291,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1">
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>124</v>
       </c>
@@ -10248,7 +10404,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1">
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>128</v>
       </c>
@@ -10361,7 +10517,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>132</v>
       </c>
@@ -10474,7 +10630,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>136</v>
       </c>
@@ -10587,7 +10743,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>140</v>
       </c>
@@ -10700,7 +10856,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>144</v>
       </c>
@@ -10813,7 +10969,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>148</v>
       </c>
@@ -10926,7 +11082,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>152</v>
       </c>
@@ -11039,7 +11195,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>156</v>
       </c>
@@ -11152,7 +11308,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="24" t="s">
         <v>160</v>
@@ -11263,7 +11419,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="24" t="s">
         <v>163</v>
@@ -11374,7 +11530,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
         <v>166</v>
       </c>
@@ -11484,7 +11640,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
         <v>169</v>
       </c>
@@ -11594,7 +11750,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -11632,7 +11788,7 @@
       <c r="AJ26" s="24"/>
       <c r="AK26" s="25"/>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>172</v>
       </c>
@@ -11677,7 +11833,7 @@
       <c r="AJ27" s="24"/>
       <c r="AK27" s="24"/>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>175</v>
       </c>
@@ -11790,7 +11946,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>179</v>
       </c>
@@ -11903,7 +12059,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>182</v>
       </c>
@@ -12016,7 +12172,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>185</v>
       </c>
@@ -12129,7 +12285,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>188</v>
       </c>
@@ -12242,7 +12398,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>191</v>
       </c>
@@ -12355,7 +12511,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>194</v>
       </c>
@@ -12468,7 +12624,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>197</v>
       </c>
@@ -12581,7 +12737,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>200</v>
       </c>
@@ -12694,7 +12850,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>203</v>
       </c>
@@ -12807,7 +12963,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>206</v>
       </c>
@@ -12920,7 +13076,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="24" t="s">
         <v>157</v>
@@ -13031,7 +13187,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="24" t="s">
         <v>160</v>
@@ -13142,7 +13298,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
         <v>163</v>
       </c>
@@ -13252,7 +13408,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="24" t="s">
         <v>166</v>
       </c>
@@ -13362,7 +13518,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>217</v>
       </c>
@@ -13475,7 +13631,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
@@ -13514,7 +13670,7 @@
       <c r="AJ44" s="24"/>
       <c r="AK44" s="25"/>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>220</v>
       </c>
@@ -13559,7 +13715,7 @@
       <c r="AJ45" s="24"/>
       <c r="AK45" s="24"/>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>223</v>
       </c>
@@ -13672,7 +13828,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>226</v>
       </c>
@@ -13785,7 +13941,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>229</v>
       </c>
@@ -13898,7 +14054,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>232</v>
       </c>
@@ -14011,7 +14167,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>235</v>
       </c>
@@ -14124,7 +14280,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>238</v>
       </c>
@@ -14237,7 +14393,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>241</v>
       </c>
@@ -14350,7 +14506,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>244</v>
       </c>
@@ -14463,7 +14619,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>247</v>
       </c>
@@ -14576,7 +14732,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>250</v>
       </c>
@@ -14689,7 +14845,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="24" t="s">
         <v>153</v>
@@ -14800,7 +14956,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="24" t="s">
         <v>157</v>
@@ -14911,7 +15067,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="24" t="s">
         <v>160</v>
       </c>
@@ -15021,7 +15177,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="24" t="s">
         <v>163</v>
       </c>
@@ -15131,7 +15287,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>261</v>
       </c>
@@ -15244,7 +15400,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15" customHeight="1">
+    <row r="61" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>264</v>
       </c>
@@ -15357,7 +15513,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -15396,7 +15552,7 @@
       <c r="AJ62" s="24"/>
       <c r="AK62" s="25"/>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>267</v>
       </c>
@@ -15441,7 +15597,7 @@
       <c r="AJ63" s="24"/>
       <c r="AK63" s="24"/>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>270</v>
       </c>
@@ -15554,7 +15710,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>273</v>
       </c>
@@ -15667,7 +15823,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>276</v>
       </c>
@@ -15780,7 +15936,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>279</v>
       </c>
@@ -15893,7 +16049,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>282</v>
       </c>
@@ -16006,7 +16162,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>285</v>
       </c>
@@ -16119,7 +16275,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>288</v>
       </c>
@@ -16232,7 +16388,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>291</v>
       </c>
@@ -16345,7 +16501,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>294</v>
       </c>
@@ -16458,7 +16614,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
         <v>149</v>
       </c>
@@ -16568,7 +16724,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="24" t="s">
         <v>153</v>
       </c>
@@ -16678,7 +16834,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15" customHeight="1">
+    <row r="75" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>301</v>
       </c>
@@ -16791,7 +16947,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>304</v>
       </c>
@@ -16904,7 +17060,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>307</v>
       </c>
@@ -17017,7 +17173,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>310</v>
       </c>
@@ -17130,7 +17286,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>313</v>
       </c>
@@ -17243,7 +17399,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
@@ -17282,7 +17438,7 @@
       <c r="AJ80" s="24"/>
       <c r="AK80" s="26"/>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>316</v>
       </c>
@@ -17327,7 +17483,7 @@
       <c r="AJ81" s="24"/>
       <c r="AK81" s="24"/>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>319</v>
       </c>
@@ -17440,7 +17596,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>322</v>
       </c>
@@ -17553,7 +17709,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="15" customHeight="1">
+    <row r="84" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>325</v>
       </c>
@@ -17666,7 +17822,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>328</v>
       </c>
@@ -17779,7 +17935,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1">
+    <row r="86" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>331</v>
       </c>
@@ -17892,7 +18048,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="15" customHeight="1">
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>334</v>
       </c>
@@ -18005,7 +18161,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="24" t="s">
         <v>137</v>
@@ -18116,7 +18272,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="24" t="s">
         <v>141</v>
@@ -18227,7 +18383,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="24" t="s">
         <v>145</v>
       </c>
@@ -18337,7 +18493,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>343</v>
       </c>
@@ -18450,7 +18606,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>346</v>
       </c>
@@ -18563,7 +18719,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>349</v>
       </c>
@@ -18676,7 +18832,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>352</v>
       </c>
@@ -18789,7 +18945,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>355</v>
       </c>
@@ -18902,7 +19058,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1">
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>358</v>
       </c>
@@ -19015,7 +19171,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="15" customHeight="1">
+    <row r="97" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>361</v>
       </c>
@@ -19128,7 +19284,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="15" customHeight="1">
+    <row r="98" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -19167,7 +19323,7 @@
       <c r="AJ98" s="24"/>
       <c r="AK98" s="25"/>
     </row>
-    <row r="99" spans="1:37" ht="15" customHeight="1">
+    <row r="99" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>364</v>
       </c>
@@ -19212,7 +19368,7 @@
       <c r="AJ99" s="24"/>
       <c r="AK99" s="24"/>
     </row>
-    <row r="100" spans="1:37" ht="15" customHeight="1">
+    <row r="100" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>367</v>
       </c>
@@ -19325,7 +19481,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:37" ht="15" customHeight="1">
+    <row r="101" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>370</v>
       </c>
@@ -19438,7 +19594,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="15" customHeight="1">
+    <row r="102" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>373</v>
       </c>
@@ -19551,7 +19707,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="15" customHeight="1">
+    <row r="103" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>376</v>
       </c>
@@ -19664,7 +19820,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="15" customHeight="1">
+    <row r="104" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="24" t="s">
         <v>129</v>
@@ -19775,7 +19931,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:37" ht="15" customHeight="1">
+    <row r="105" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="24" t="s">
         <v>133</v>
@@ -19886,7 +20042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="15" customHeight="1">
+    <row r="106" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="24" t="s">
         <v>137</v>
       </c>
@@ -19996,7 +20152,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="15" customHeight="1">
+    <row r="107" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="24" t="s">
         <v>141</v>
       </c>
@@ -20106,7 +20262,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="15" customHeight="1">
+    <row r="108" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>387</v>
       </c>
@@ -20219,7 +20375,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="15" customHeight="1">
+    <row r="109" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>390</v>
       </c>
@@ -20332,7 +20488,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="15" customHeight="1">
+    <row r="110" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>393</v>
       </c>
@@ -20445,7 +20601,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="15" customHeight="1">
+    <row r="111" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>396</v>
       </c>
@@ -20558,7 +20714,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="15" customHeight="1">
+    <row r="112" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>399</v>
       </c>
@@ -20671,7 +20827,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="15" customHeight="1">
+    <row r="113" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>402</v>
       </c>
@@ -20784,7 +20940,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="15" customHeight="1">
+    <row r="114" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>405</v>
       </c>
@@ -20897,7 +21053,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="15" customHeight="1">
+    <row r="115" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>408</v>
       </c>
@@ -21010,7 +21166,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:37" ht="15" customHeight="1">
+    <row r="116" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
@@ -21049,7 +21205,7 @@
       <c r="AJ116" s="24"/>
       <c r="AK116" s="26"/>
     </row>
-    <row r="117" spans="1:37" ht="15" customHeight="1">
+    <row r="117" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>411</v>
       </c>
@@ -21094,7 +21250,7 @@
       <c r="AJ117" s="24"/>
       <c r="AK117" s="24"/>
     </row>
-    <row r="118" spans="1:37" ht="15" customHeight="1">
+    <row r="118" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>414</v>
       </c>
@@ -21207,7 +21363,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="1:37" ht="15" customHeight="1">
+    <row r="119" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>417</v>
       </c>
@@ -21320,7 +21476,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="15" customHeight="1">
+    <row r="120" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>420</v>
       </c>
@@ -21433,7 +21589,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="15" customHeight="1">
+    <row r="121" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="24" t="s">
         <v>125</v>
@@ -21544,7 +21700,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="15" customHeight="1">
+    <row r="122" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="24" t="s">
         <v>129</v>
       </c>
@@ -21654,7 +21810,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="15" customHeight="1">
+    <row r="123" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="24" t="s">
         <v>133</v>
       </c>
@@ -21764,7 +21920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="15" customHeight="1">
+    <row r="124" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>429</v>
       </c>
@@ -21877,7 +22033,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="15" customHeight="1">
+    <row r="125" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>432</v>
       </c>
@@ -21990,7 +22146,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="15" customHeight="1">
+    <row r="126" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>435</v>
       </c>
@@ -22103,7 +22259,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="15" customHeight="1">
+    <row r="127" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>438</v>
       </c>
@@ -22216,7 +22372,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="15" customHeight="1">
+    <row r="128" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>441</v>
       </c>
@@ -22329,7 +22485,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:37" ht="15" customHeight="1">
+    <row r="129" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>444</v>
       </c>
@@ -22442,7 +22598,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:37" ht="15" customHeight="1">
+    <row r="130" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>447</v>
       </c>
@@ -22555,7 +22711,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:37" ht="15" customHeight="1">
+    <row r="131" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>450</v>
       </c>
@@ -22668,7 +22824,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:37" ht="15" customHeight="1">
+    <row r="132" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>453</v>
       </c>
@@ -22781,7 +22937,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:37" ht="15" customHeight="1">
+    <row r="133" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>456</v>
       </c>
@@ -22894,7 +23050,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:37" ht="15" customHeight="1">
+    <row r="134" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
@@ -22933,7 +23089,7 @@
       <c r="AJ134" s="24"/>
       <c r="AK134" s="26"/>
     </row>
-    <row r="135" spans="1:37" ht="15" customHeight="1">
+    <row r="135" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>459</v>
       </c>
@@ -22978,7 +23134,7 @@
       <c r="AJ135" s="24"/>
       <c r="AK135" s="24"/>
     </row>
-    <row r="136" spans="1:37" ht="15" customHeight="1">
+    <row r="136" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>462</v>
       </c>
@@ -23091,7 +23247,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:37" ht="15" customHeight="1">
+    <row r="137" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="24" t="s">
         <v>117</v>
@@ -23202,7 +23358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:37" ht="15" customHeight="1">
+    <row r="138" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="24" t="s">
         <v>121</v>
@@ -23313,7 +23469,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="15" customHeight="1">
+    <row r="139" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="24" t="s">
         <v>125</v>
       </c>
@@ -23423,7 +23579,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:37" ht="15" customHeight="1">
+    <row r="140" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>471</v>
       </c>
@@ -23536,7 +23692,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:37" ht="15" customHeight="1">
+    <row r="141" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>474</v>
       </c>
@@ -23649,7 +23805,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:37" ht="15" customHeight="1">
+    <row r="142" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>477</v>
       </c>
@@ -23762,7 +23918,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:37" ht="15" customHeight="1">
+    <row r="143" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>480</v>
       </c>
@@ -23875,7 +24031,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:37" ht="15" customHeight="1">
+    <row r="144" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>483</v>
       </c>
@@ -23988,7 +24144,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:37" ht="15" customHeight="1">
+    <row r="145" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>486</v>
       </c>
@@ -24101,7 +24257,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="15" customHeight="1">
+    <row r="146" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>489</v>
       </c>
@@ -24214,7 +24370,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="1:37" ht="15" customHeight="1">
+    <row r="147" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>492</v>
       </c>
@@ -24327,7 +24483,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:37" ht="15" customHeight="1">
+    <row r="148" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>495</v>
       </c>
@@ -24440,7 +24596,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:37" ht="15" customHeight="1">
+    <row r="149" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>498</v>
       </c>
@@ -24553,7 +24709,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="15" customHeight="1">
+    <row r="150" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>501</v>
       </c>
@@ -24666,7 +24822,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:37" ht="15" customHeight="1">
+    <row r="151" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>504</v>
       </c>
@@ -24779,7 +24935,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:37" ht="15" customHeight="1">
+    <row r="152" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="24"/>
       <c r="C152" s="24"/>
@@ -24818,7 +24974,7 @@
       <c r="AJ152" s="24"/>
       <c r="AK152" s="26"/>
     </row>
-    <row r="153" spans="1:37" ht="15" customHeight="1">
+    <row r="153" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="28" t="s">
         <v>507</v>
       </c>
@@ -24860,7 +25016,7 @@
       <c r="AJ153" s="24"/>
       <c r="AK153" s="24"/>
     </row>
-    <row r="154" spans="1:37" ht="15" customHeight="1">
+    <row r="154" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="24" t="s">
         <v>112</v>
       </c>
@@ -24970,7 +25126,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:37" ht="15" customHeight="1">
+    <row r="155" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="24" t="s">
         <v>117</v>
       </c>
@@ -25080,7 +25236,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:37" ht="15" customHeight="1">
+    <row r="156" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>513</v>
       </c>
@@ -25193,7 +25349,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:37" ht="15" customHeight="1">
+    <row r="157" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>516</v>
       </c>
@@ -25306,7 +25462,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:37" ht="15" customHeight="1">
+    <row r="158" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>519</v>
       </c>
@@ -25419,7 +25575,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:37" ht="15" customHeight="1">
+    <row r="159" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>522</v>
       </c>
@@ -25532,7 +25688,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="160" spans="1:37" ht="15" customHeight="1">
+    <row r="160" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>525</v>
       </c>
@@ -25645,7 +25801,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="1:37" ht="15" customHeight="1">
+    <row r="161" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>528</v>
       </c>
@@ -25758,7 +25914,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="1:37" ht="15" customHeight="1">
+    <row r="162" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>531</v>
       </c>
@@ -25871,7 +26027,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:37" ht="15" customHeight="1">
+    <row r="163" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>534</v>
       </c>
@@ -25984,7 +26140,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:37" ht="15" customHeight="1">
+    <row r="164" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>537</v>
       </c>
@@ -26097,7 +26253,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="165" spans="1:37" ht="15" customHeight="1">
+    <row r="165" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>540</v>
       </c>
@@ -26210,7 +26366,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:37" ht="15" customHeight="1">
+    <row r="166" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>543</v>
       </c>
@@ -26323,7 +26479,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="167" spans="1:37" ht="15" customHeight="1">
+    <row r="167" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>546</v>
       </c>
@@ -26436,7 +26592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="1:37" ht="15" customHeight="1">
+    <row r="168" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="24" t="s">
         <v>166</v>
       </c>
@@ -26546,7 +26702,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="1:37" ht="15" customHeight="1">
+    <row r="169" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="24" t="s">
         <v>169</v>
       </c>
@@ -26656,7 +26812,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:37" ht="15" customHeight="1">
+    <row r="170" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="24"/>
       <c r="C170" s="24"/>
       <c r="D170" s="24"/>
@@ -26694,7 +26850,7 @@
       <c r="AJ170" s="24"/>
       <c r="AK170" s="26"/>
     </row>
-    <row r="171" spans="1:37" ht="15" customHeight="1">
+    <row r="171" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>553</v>
       </c>
@@ -26739,7 +26895,7 @@
       <c r="AJ171" s="24"/>
       <c r="AK171" s="24"/>
     </row>
-    <row r="172" spans="1:37" ht="15" customHeight="1">
+    <row r="172" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>556</v>
       </c>
@@ -26852,7 +27008,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:37" ht="15" customHeight="1">
+    <row r="173" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>559</v>
       </c>
@@ -26965,7 +27121,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:37" ht="15" customHeight="1">
+    <row r="174" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>562</v>
       </c>
@@ -27078,7 +27234,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:37" ht="15" customHeight="1">
+    <row r="175" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>565</v>
       </c>
@@ -27191,7 +27347,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:37" ht="15" customHeight="1">
+    <row r="176" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>568</v>
       </c>
@@ -27304,7 +27460,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="177" spans="1:37" ht="15" customHeight="1">
+    <row r="177" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>571</v>
       </c>
@@ -27417,7 +27573,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:37" ht="15" customHeight="1">
+    <row r="178" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>574</v>
       </c>
@@ -27530,7 +27686,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:37" ht="15" customHeight="1">
+    <row r="179" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>577</v>
       </c>
@@ -27643,7 +27799,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:37" ht="15" customHeight="1">
+    <row r="180" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>580</v>
       </c>
@@ -27756,7 +27912,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:37" ht="15" customHeight="1">
+    <row r="181" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>583</v>
       </c>
@@ -27869,7 +28025,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:37" ht="15" customHeight="1">
+    <row r="182" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>586</v>
       </c>
@@ -27982,7 +28138,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="183" spans="1:37" ht="15" customHeight="1">
+    <row r="183" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="24" t="s">
         <v>157</v>
       </c>
@@ -28092,7 +28248,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="184" spans="1:37" ht="15" customHeight="1">
+    <row r="184" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="24" t="s">
         <v>160</v>
       </c>
@@ -28202,7 +28358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="185" spans="1:37" ht="15" customHeight="1">
+    <row r="185" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>593</v>
       </c>
@@ -28315,7 +28471,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="1:37" ht="15" customHeight="1">
+    <row r="186" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>596</v>
       </c>
@@ -28428,7 +28584,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="1:37" ht="15" customHeight="1">
+    <row r="187" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>599</v>
       </c>
@@ -28541,7 +28697,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="188" spans="1:37" ht="15" customHeight="1">
+    <row r="188" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="24"/>
       <c r="C188" s="24"/>
@@ -28580,7 +28736,7 @@
       <c r="AJ188" s="24"/>
       <c r="AK188" s="26"/>
     </row>
-    <row r="189" spans="1:37" ht="15" customHeight="1">
+    <row r="189" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>602</v>
       </c>
@@ -28625,7 +28781,7 @@
       <c r="AJ189" s="24"/>
       <c r="AK189" s="24"/>
     </row>
-    <row r="190" spans="1:37" ht="15" customHeight="1">
+    <row r="190" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>605</v>
       </c>
@@ -28738,7 +28894,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="191" spans="1:37" ht="15" customHeight="1">
+    <row r="191" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>608</v>
       </c>
@@ -28851,7 +29007,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:37" ht="15" customHeight="1">
+    <row r="192" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>611</v>
       </c>
@@ -28964,7 +29120,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:37" ht="15" customHeight="1">
+    <row r="193" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>614</v>
       </c>
@@ -29077,7 +29233,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:37" ht="15" customHeight="1">
+    <row r="194" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>617</v>
       </c>
@@ -29190,7 +29346,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:37" ht="15" customHeight="1">
+    <row r="195" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>620</v>
       </c>
@@ -29303,7 +29459,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:37" ht="15" customHeight="1">
+    <row r="196" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>623</v>
       </c>
@@ -29416,7 +29572,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:37" ht="15" customHeight="1">
+    <row r="197" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>626</v>
       </c>
@@ -29529,7 +29685,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:37" ht="15" customHeight="1">
+    <row r="198" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="24" t="s">
         <v>145</v>
       </c>
@@ -29639,7 +29795,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:37" ht="15" customHeight="1">
+    <row r="199" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="24" t="s">
         <v>149</v>
       </c>
@@ -29749,7 +29905,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="200" spans="1:37" ht="15" customHeight="1">
+    <row r="200" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>633</v>
       </c>
@@ -29862,7 +30018,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:37" ht="15" customHeight="1">
+    <row r="201" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>636</v>
       </c>
@@ -29975,7 +30131,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="202" spans="1:37" ht="15" customHeight="1">
+    <row r="202" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>639</v>
       </c>
@@ -30088,7 +30244,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:37" ht="15" customHeight="1">
+    <row r="203" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>642</v>
       </c>
@@ -30201,7 +30357,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:37" ht="15" customHeight="1">
+    <row r="204" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>645</v>
       </c>
@@ -30314,7 +30470,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:37" ht="15" customHeight="1">
+    <row r="205" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>648</v>
       </c>
@@ -30427,7 +30583,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:37" ht="15" customHeight="1">
+    <row r="206" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="24"/>
       <c r="C206" s="24"/>
@@ -30466,7 +30622,7 @@
       <c r="AJ206" s="24"/>
       <c r="AK206" s="25"/>
     </row>
-    <row r="207" spans="1:37" ht="15" customHeight="1">
+    <row r="207" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>651</v>
       </c>
@@ -30511,7 +30667,7 @@
       <c r="AJ207" s="24"/>
       <c r="AK207" s="24"/>
     </row>
-    <row r="208" spans="1:37" ht="15" customHeight="1">
+    <row r="208" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>654</v>
       </c>
@@ -30624,7 +30780,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="209" spans="1:37" ht="15" customHeight="1">
+    <row r="209" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>657</v>
       </c>
@@ -30737,7 +30893,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:37" ht="15" customHeight="1">
+    <row r="210" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>660</v>
       </c>
@@ -30850,7 +31006,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:37" ht="15" customHeight="1">
+    <row r="211" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>663</v>
       </c>
@@ -30963,7 +31119,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:37" ht="15" customHeight="1">
+    <row r="212" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>666</v>
       </c>
@@ -31076,7 +31232,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:37" ht="15" customHeight="1">
+    <row r="213" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
         <v>133</v>
       </c>
@@ -31186,7 +31342,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:37" ht="15" customHeight="1">
+    <row r="214" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="24" t="s">
         <v>137</v>
       </c>
@@ -31296,7 +31452,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:37" ht="15" customHeight="1">
+    <row r="215" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>673</v>
       </c>
@@ -31409,7 +31565,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:37" ht="15" customHeight="1">
+    <row r="216" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>676</v>
       </c>
@@ -31522,7 +31678,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="217" spans="1:37" ht="15" customHeight="1">
+    <row r="217" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>679</v>
       </c>
@@ -31635,7 +31791,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="218" spans="1:37" ht="15" customHeight="1">
+    <row r="218" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>682</v>
       </c>
@@ -31748,7 +31904,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="219" spans="1:37" ht="15" customHeight="1">
+    <row r="219" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>685</v>
       </c>
@@ -31861,7 +32017,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:37" ht="15" customHeight="1">
+    <row r="220" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>688</v>
       </c>
@@ -31974,7 +32130,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:37" ht="15" customHeight="1">
+    <row r="221" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>691</v>
       </c>
@@ -32087,7 +32243,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:37" ht="15" customHeight="1">
+    <row r="222" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>694</v>
       </c>
@@ -32200,7 +32356,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:37" ht="15" customHeight="1">
+    <row r="223" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>697</v>
       </c>
@@ -32313,7 +32469,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:37" ht="15" customHeight="1">
+    <row r="224" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="24"/>
       <c r="C224" s="24"/>
@@ -32352,7 +32508,7 @@
       <c r="AJ224" s="24"/>
       <c r="AK224" s="25"/>
     </row>
-    <row r="225" spans="1:37" ht="15" customHeight="1">
+    <row r="225" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>700</v>
       </c>
@@ -32397,7 +32553,7 @@
       <c r="AJ225" s="24"/>
       <c r="AK225" s="24"/>
     </row>
-    <row r="226" spans="1:37" ht="15" customHeight="1">
+    <row r="226" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>703</v>
       </c>
@@ -32510,7 +32666,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="227" spans="1:37" ht="15" customHeight="1">
+    <row r="227" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>706</v>
       </c>
@@ -32623,7 +32779,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="228" spans="1:37" ht="15" customHeight="1">
+    <row r="228" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="24" t="s">
         <v>121</v>
       </c>
@@ -32733,7 +32889,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="229" spans="1:37" ht="15" customHeight="1">
+    <row r="229" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="24" t="s">
         <v>125</v>
       </c>
@@ -32843,7 +32999,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="230" spans="1:37" ht="15" customHeight="1">
+    <row r="230" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>713</v>
       </c>
@@ -32956,7 +33112,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="231" spans="1:37" ht="15" customHeight="1">
+    <row r="231" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>716</v>
       </c>
@@ -33069,7 +33225,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="232" spans="1:37" ht="15" customHeight="1">
+    <row r="232" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>719</v>
       </c>
@@ -33182,7 +33338,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="233" spans="1:37" ht="15" customHeight="1">
+    <row r="233" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>722</v>
       </c>
@@ -33295,7 +33451,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="234" spans="1:37" ht="15" customHeight="1">
+    <row r="234" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>725</v>
       </c>
@@ -33408,7 +33564,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="235" spans="1:37" ht="15" customHeight="1">
+    <row r="235" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>728</v>
       </c>
@@ -33521,7 +33677,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="236" spans="1:37" ht="15" customHeight="1">
+    <row r="236" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>731</v>
       </c>
@@ -33634,7 +33790,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="237" spans="1:37" ht="15" customHeight="1">
+    <row r="237" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>734</v>
       </c>
@@ -33747,7 +33903,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="238" spans="1:37" ht="15" customHeight="1">
+    <row r="238" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>737</v>
       </c>
@@ -33860,7 +34016,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="239" spans="1:37" ht="15" customHeight="1">
+    <row r="239" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>740</v>
       </c>
@@ -33973,7 +34129,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="240" spans="1:37" ht="15" customHeight="1">
+    <row r="240" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>743</v>
       </c>
@@ -34086,7 +34242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="241" spans="1:37" ht="15" customHeight="1">
+    <row r="241" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>746</v>
       </c>
@@ -34199,7 +34355,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="242" spans="1:37" ht="15" customHeight="1">
+    <row r="242" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="24"/>
       <c r="C242" s="24"/>
@@ -34238,7 +34394,7 @@
       <c r="AJ242" s="24"/>
       <c r="AK242" s="26"/>
     </row>
-    <row r="243" spans="1:37" ht="15" customHeight="1">
+    <row r="243" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="28" t="s">
         <v>749</v>
       </c>
@@ -34280,7 +34436,7 @@
       <c r="AJ243" s="24"/>
       <c r="AK243" s="24"/>
     </row>
-    <row r="244" spans="1:37" ht="15" customHeight="1">
+    <row r="244" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="24" t="s">
         <v>112</v>
       </c>
@@ -34390,7 +34546,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="245" spans="1:37" ht="15" customHeight="1">
+    <row r="245" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>753</v>
       </c>
@@ -34503,7 +34659,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:37" ht="15" customHeight="1">
+    <row r="246" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>756</v>
       </c>
@@ -34616,7 +34772,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:37" ht="15" customHeight="1">
+    <row r="247" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>759</v>
       </c>
@@ -34729,7 +34885,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:37" ht="15" customHeight="1">
+    <row r="248" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>762</v>
       </c>
@@ -34842,7 +34998,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:37" ht="15" customHeight="1">
+    <row r="249" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>765</v>
       </c>
@@ -34955,7 +35111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:37" ht="15" customHeight="1">
+    <row r="250" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>768</v>
       </c>
@@ -35068,7 +35224,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:37" ht="15" customHeight="1">
+    <row r="251" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>771</v>
       </c>
@@ -35181,7 +35337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:37" ht="15" customHeight="1">
+    <row r="252" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>774</v>
       </c>
@@ -35294,7 +35450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:37" ht="15" customHeight="1">
+    <row r="253" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>777</v>
       </c>
@@ -35407,7 +35563,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:37" ht="15" customHeight="1">
+    <row r="254" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>780</v>
       </c>
@@ -35520,7 +35676,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:37" ht="15" customHeight="1">
+    <row r="255" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>783</v>
       </c>
@@ -35633,7 +35789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:37" ht="15" customHeight="1">
+    <row r="256" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>786</v>
       </c>
@@ -35746,7 +35902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:37" ht="15" customHeight="1">
+    <row r="257" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="24" t="s">
         <v>163</v>
       </c>
@@ -35856,7 +36012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:37" ht="15" customHeight="1">
+    <row r="258" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="24" t="s">
         <v>166</v>
       </c>
@@ -35966,7 +36122,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:37" ht="15" customHeight="1">
+    <row r="259" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>793</v>
       </c>
@@ -36079,7 +36235,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:37" ht="15" customHeight="1">
+    <row r="260" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="24"/>
       <c r="C260" s="24"/>
@@ -36118,7 +36274,7 @@
       <c r="AJ260" s="24"/>
       <c r="AK260" s="25"/>
     </row>
-    <row r="261" spans="1:37" ht="15" customHeight="1">
+    <row r="261" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>796</v>
       </c>
@@ -36163,7 +36319,7 @@
       <c r="AJ261" s="24"/>
       <c r="AK261" s="24"/>
     </row>
-    <row r="262" spans="1:37" ht="15" customHeight="1">
+    <row r="262" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>799</v>
       </c>
@@ -36276,7 +36432,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="263" spans="1:37" ht="15" customHeight="1">
+    <row r="263" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="24" t="s">
         <v>117</v>
       </c>
@@ -36386,7 +36542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="264" spans="1:37" ht="15" customHeight="1">
+    <row r="264" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="24" t="s">
         <v>121</v>
       </c>
@@ -36496,7 +36652,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="265" spans="1:37" ht="15" customHeight="1">
+    <row r="265" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="24" t="s">
         <v>125</v>
       </c>
@@ -36606,7 +36762,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="266" spans="1:37" ht="15" customHeight="1">
+    <row r="266" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="24" t="s">
         <v>129</v>
       </c>
@@ -36716,7 +36872,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="267" spans="1:37" ht="15" customHeight="1">
+    <row r="267" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="24" t="s">
         <v>133</v>
       </c>
@@ -36826,7 +36982,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="268" spans="1:37" ht="15" customHeight="1">
+    <row r="268" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="24" t="s">
         <v>137</v>
       </c>
@@ -36936,7 +37092,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:37" ht="15" customHeight="1">
+    <row r="269" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="24" t="s">
         <v>141</v>
       </c>
@@ -37046,7 +37202,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="270" spans="1:37" ht="15" customHeight="1">
+    <row r="270" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="24" t="s">
         <v>145</v>
       </c>
@@ -37156,7 +37312,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="271" spans="1:37" ht="15" customHeight="1">
+    <row r="271" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="24" t="s">
         <v>149</v>
       </c>
@@ -37266,7 +37422,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="272" spans="1:37" ht="15" customHeight="1">
+    <row r="272" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="24" t="s">
         <v>153</v>
       </c>
@@ -37376,7 +37532,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="273" spans="2:37" ht="15" customHeight="1">
+    <row r="273" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="24" t="s">
         <v>157</v>
       </c>
@@ -37486,7 +37642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="274" spans="2:37" ht="15" customHeight="1">
+    <row r="274" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="24" t="s">
         <v>160</v>
       </c>
@@ -37596,7 +37752,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="275" spans="2:37" ht="15" customHeight="1">
+    <row r="275" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="24" t="s">
         <v>163</v>
       </c>
@@ -37706,7 +37862,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="276" spans="2:37" ht="15" customHeight="1">
+    <row r="276" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="24" t="s">
         <v>166</v>
       </c>
@@ -37816,7 +37972,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="277" spans="2:37" ht="15" customHeight="1">
+    <row r="277" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="24" t="s">
         <v>169</v>
       </c>
@@ -37926,7 +38082,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="278" spans="2:37" ht="15" customHeight="1">
+    <row r="278" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="24"/>
       <c r="C278" s="24"/>
       <c r="D278" s="24"/>
@@ -37964,7 +38120,7 @@
       <c r="AJ278" s="24"/>
       <c r="AK278" s="26"/>
     </row>
-    <row r="279" spans="2:37" ht="15" customHeight="1">
+    <row r="279" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="27" t="s">
         <v>832</v>
       </c>
@@ -38006,7 +38162,7 @@
       <c r="AJ279" s="24"/>
       <c r="AK279" s="24"/>
     </row>
-    <row r="280" spans="2:37" ht="15" customHeight="1">
+    <row r="280" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="24" t="s">
         <v>112</v>
       </c>
@@ -38116,7 +38272,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="281" spans="2:37" ht="15" customHeight="1">
+    <row r="281" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="24" t="s">
         <v>117</v>
       </c>
@@ -38226,7 +38382,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="282" spans="2:37" ht="15" customHeight="1">
+    <row r="282" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="24" t="s">
         <v>121</v>
       </c>
@@ -38336,7 +38492,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="283" spans="2:37" ht="15" customHeight="1">
+    <row r="283" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="24" t="s">
         <v>125</v>
       </c>
@@ -38446,7 +38602,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="284" spans="2:37" ht="15" customHeight="1">
+    <row r="284" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="24" t="s">
         <v>129</v>
       </c>
@@ -38556,7 +38712,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="285" spans="2:37" ht="15" customHeight="1">
+    <row r="285" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="24" t="s">
         <v>133</v>
       </c>
@@ -38666,7 +38822,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="286" spans="2:37" ht="15" customHeight="1">
+    <row r="286" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="24" t="s">
         <v>137</v>
       </c>
@@ -38776,7 +38932,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="287" spans="2:37" ht="15" customHeight="1">
+    <row r="287" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="24" t="s">
         <v>141</v>
       </c>
@@ -38886,7 +39042,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="288" spans="2:37" ht="15" customHeight="1">
+    <row r="288" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="24" t="s">
         <v>145</v>
       </c>
@@ -38996,7 +39152,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="289" spans="2:37" ht="15" customHeight="1">
+    <row r="289" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="24" t="s">
         <v>149</v>
       </c>
@@ -39106,7 +39262,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="290" spans="2:37" ht="15" customHeight="1">
+    <row r="290" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="24" t="s">
         <v>153</v>
       </c>
@@ -39216,7 +39372,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="291" spans="2:37" ht="15" customHeight="1">
+    <row r="291" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="24" t="s">
         <v>157</v>
       </c>
@@ -39326,7 +39482,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="292" spans="2:37" ht="15" customHeight="1">
+    <row r="292" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="24" t="s">
         <v>160</v>
       </c>
@@ -39436,7 +39592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="293" spans="2:37" ht="15" customHeight="1">
+    <row r="293" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="24" t="s">
         <v>163</v>
       </c>
@@ -39546,7 +39702,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="294" spans="2:37" ht="15" customHeight="1">
+    <row r="294" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="24" t="s">
         <v>166</v>
       </c>
@@ -39656,7 +39812,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="295" spans="2:37" ht="15" customHeight="1">
+    <row r="295" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="24" t="s">
         <v>169</v>
       </c>
@@ -39766,7 +39922,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="296" spans="2:37" ht="15" customHeight="1">
+    <row r="296" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="24"/>
       <c r="C296" s="24"/>
       <c r="D296" s="24"/>
@@ -39804,7 +39960,7 @@
       <c r="AJ296" s="24"/>
       <c r="AK296" s="26"/>
     </row>
-    <row r="297" spans="2:37" ht="15" customHeight="1">
+    <row r="297" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="27" t="s">
         <v>866</v>
       </c>
@@ -39846,7 +40002,7 @@
       <c r="AJ297" s="24"/>
       <c r="AK297" s="24"/>
     </row>
-    <row r="298" spans="2:37" ht="15" customHeight="1">
+    <row r="298" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="24" t="s">
         <v>868</v>
       </c>
@@ -39956,7 +40112,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="299" spans="2:37" ht="15" customHeight="1">
+    <row r="299" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="24" t="s">
         <v>871</v>
       </c>
@@ -40066,7 +40222,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="300" spans="2:37" ht="15" customHeight="1">
+    <row r="300" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="24" t="s">
         <v>874</v>
       </c>
@@ -40176,52 +40332,52 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="301" spans="2:37" ht="15" customHeight="1">
+    <row r="301" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F301" s="24"/>
     </row>
-    <row r="302" spans="2:37" ht="15" customHeight="1">
+    <row r="302" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F302" s="24"/>
     </row>
-    <row r="303" spans="2:37" ht="15" customHeight="1">
+    <row r="303" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F303" s="24"/>
     </row>
-    <row r="304" spans="2:37" ht="15" customHeight="1">
+    <row r="304" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F304" s="24"/>
     </row>
-    <row r="305" spans="6:6" ht="15" customHeight="1">
+    <row r="305" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F305" s="24"/>
     </row>
-    <row r="306" spans="6:6" ht="15" customHeight="1">
+    <row r="306" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F306" s="24"/>
     </row>
-    <row r="307" spans="6:6" ht="15" customHeight="1">
+    <row r="307" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F307" s="24"/>
     </row>
-    <row r="308" spans="6:6" ht="15" customHeight="1">
+    <row r="308" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F308" s="24"/>
     </row>
-    <row r="309" spans="6:6" ht="15" customHeight="1">
+    <row r="309" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F309" s="24"/>
     </row>
-    <row r="310" spans="6:6" ht="15" customHeight="1">
+    <row r="310" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F310" s="24"/>
     </row>
-    <row r="311" spans="6:6" ht="15" customHeight="1">
+    <row r="311" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F311" s="24"/>
     </row>
-    <row r="312" spans="6:6" ht="15" customHeight="1">
+    <row r="312" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F312" s="24"/>
     </row>
-    <row r="313" spans="6:6" ht="15" customHeight="1">
+    <row r="313" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F313" s="24"/>
     </row>
-    <row r="314" spans="6:6" ht="15" customHeight="1">
+    <row r="314" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F314" s="24"/>
     </row>
-    <row r="315" spans="6:6" ht="15" customHeight="1">
+    <row r="315" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F315" s="24"/>
     </row>
-    <row r="316" spans="6:6" ht="15" customHeight="1">
+    <row r="316" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F316" s="24"/>
     </row>
   </sheetData>
@@ -40237,13 +40393,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -40254,22 +40410,22 @@
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.15" customHeight="1">
+    <row r="4" spans="1:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>880</v>
       </c>
@@ -40304,7 +40460,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>891</v>
       </c>
@@ -40337,7 +40493,7 @@
         <v>1.5104586950000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>896</v>
       </c>
@@ -40367,7 +40523,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>898</v>
       </c>
@@ -40397,7 +40553,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>901</v>
       </c>
@@ -40427,7 +40583,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>903</v>
       </c>
@@ -40457,7 +40613,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>907</v>
       </c>
@@ -40487,7 +40643,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>909</v>
       </c>
@@ -40517,7 +40673,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>896</v>
       </c>
@@ -40547,7 +40703,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>912</v>
       </c>
@@ -40577,7 +40733,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>901</v>
       </c>
@@ -40607,7 +40763,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>915</v>
       </c>
@@ -40637,7 +40793,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>917</v>
       </c>
@@ -40667,7 +40823,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>903</v>
       </c>
@@ -40697,7 +40853,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>920</v>
       </c>
@@ -40727,7 +40883,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>901</v>
       </c>
@@ -40757,7 +40913,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>923</v>
       </c>
@@ -40787,7 +40943,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>896</v>
       </c>
@@ -40817,7 +40973,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>926</v>
       </c>
@@ -40847,7 +41003,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>928</v>
       </c>
@@ -40877,7 +41033,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>930</v>
       </c>
@@ -40907,7 +41063,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>928</v>
       </c>
@@ -40937,7 +41093,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>934</v>
       </c>
@@ -40968,7 +41124,7 @@
       </c>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>920</v>
       </c>
@@ -40998,7 +41154,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>934</v>
       </c>
@@ -41028,7 +41184,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>926</v>
       </c>
@@ -41059,7 +41215,7 @@
       </c>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>939</v>
       </c>
@@ -41089,7 +41245,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>934</v>
       </c>
@@ -41119,7 +41275,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>934</v>
       </c>
@@ -41149,7 +41305,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>934</v>
       </c>
@@ -41179,7 +41335,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>944</v>
       </c>
@@ -41209,7 +41365,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>939</v>
       </c>
@@ -41239,7 +41395,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>947</v>
       </c>
@@ -41269,7 +41425,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>926</v>
       </c>
@@ -41299,7 +41455,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>926</v>
       </c>
@@ -41329,7 +41485,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>953</v>
       </c>
@@ -41359,7 +41515,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>953</v>
       </c>
@@ -41390,7 +41546,7 @@
       </c>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>956</v>
       </c>
@@ -41420,7 +41576,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>920</v>
       </c>
@@ -41450,7 +41606,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>959</v>
       </c>
@@ -41480,9 +41636,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15"/>
-    <row r="45" spans="1:10" ht="15"/>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>961</v>
       </c>
@@ -41491,7 +41645,7 @@
         <v>33313.224761833022</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>962</v>
       </c>
@@ -41500,8 +41654,6 @@
         <v>36626.726753846684</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15"/>
-    <row r="49" ht="15"/>
   </sheetData>
   <autoFilter ref="A4:J4" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J42">
@@ -41531,16 +41683,16 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>963</v>
       </c>
@@ -41644,7 +41796,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>964</v>
       </c>
@@ -41781,7 +41933,7 @@
         <v>26430.806440973112</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>965</v>
       </c>
@@ -41918,7 +42070,7 @@
         <v>34818.203389830509</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>966</v>
       </c>
@@ -42055,7 +42207,7 @@
         <v>28870.218644067798</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>967</v>
       </c>
@@ -42192,7 +42344,7 @@
         <v>32359.52598870056</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>968</v>
       </c>
@@ -42330,7 +42482,7 @@
       </c>
       <c r="AI6" s="5"/>
     </row>
-    <row r="7" spans="1:35" ht="15">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -42467,7 +42619,7 @@
         <v>43031.811864406787</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -42621,18 +42773,18 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -42735,11 +42887,9 @@
       <c r="AH1" s="22">
         <v>2050</v>
       </c>
-      <c r="AI1" s="22">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="15">
+      <c r="AI1" s="22"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -42844,11 +42994,9 @@
       <c r="AH2" s="22">
         <v>65178</v>
       </c>
-      <c r="AI2" s="22">
-        <v>65178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="15">
+      <c r="AI2" s="22"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -42953,11 +43101,9 @@
       <c r="AH3" s="22">
         <v>54550</v>
       </c>
-      <c r="AI3" s="22">
-        <v>54550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="15">
+      <c r="AI3" s="22"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -43062,11 +43208,9 @@
       <c r="AH4" s="22">
         <v>45516</v>
       </c>
-      <c r="AI4" s="22">
-        <v>45516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="15">
+      <c r="AI4" s="22"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -43171,11 +43315,9 @@
       <c r="AH5" s="22">
         <v>50573</v>
       </c>
-      <c r="AI5" s="22">
-        <v>50573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="15">
+      <c r="AI5" s="22"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -43280,11 +43422,9 @@
       <c r="AH6" s="22">
         <v>54844</v>
       </c>
-      <c r="AI6" s="22">
-        <v>54844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" ht="15">
+      <c r="AI6" s="22"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -43389,11 +43529,9 @@
       <c r="AH7" s="22">
         <v>57131</v>
       </c>
-      <c r="AI7" s="22">
-        <v>57131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="15">
+      <c r="AI7" s="22"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -43498,9 +43636,7 @@
       <c r="AH8" s="22">
         <v>65683</v>
       </c>
-      <c r="AI8" s="22">
-        <v>65683</v>
-      </c>
+      <c r="AI8" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43519,16 +43655,16 @@
   </sheetPr>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -43632,7 +43768,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>964</v>
       </c>
@@ -43738,7 +43874,7 @@
         <v>787140</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>965</v>
       </c>
@@ -43844,7 +43980,7 @@
         <v>563691</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>966</v>
       </c>
@@ -43950,7 +44086,7 @@
         <v>425813</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>967</v>
       </c>
@@ -44056,7 +44192,7 @@
         <v>425813</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>968</v>
       </c>
@@ -44162,7 +44298,7 @@
         <v>632408</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -44268,7 +44404,7 @@
         <v>549099</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -44391,18 +44527,18 @@
   </sheetPr>
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -44506,7 +44642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -44615,7 +44751,7 @@
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
     </row>
-    <row r="3" spans="1:37" ht="15">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -44724,7 +44860,7 @@
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
     </row>
-    <row r="4" spans="1:37" ht="15">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -44833,7 +44969,7 @@
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
     </row>
-    <row r="5" spans="1:37" ht="15">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -44942,7 +45078,7 @@
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
     </row>
-    <row r="6" spans="1:37" ht="15">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -45051,7 +45187,7 @@
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
     </row>
-    <row r="7" spans="1:37" ht="15">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -45157,7 +45293,7 @@
         <v>222837</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -45280,11 +45416,11 @@
   </sheetPr>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C8"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -45292,7 +45428,7 @@
     <col min="4" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -45396,7 +45532,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -45502,7 +45638,7 @@
         <v>119848199</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -45608,7 +45744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -45714,7 +45850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -45820,7 +45956,7 @@
         <v>64833333.329999998</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -45926,7 +46062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -46032,7 +46168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -46155,11 +46291,11 @@
   </sheetPr>
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C8"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -46167,7 +46303,7 @@
     <col min="4" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>963</v>
       </c>
@@ -46271,7 +46407,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>964</v>
       </c>
@@ -46377,7 +46513,7 @@
         <v>119848199</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>965</v>
       </c>
@@ -46483,7 +46619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>966</v>
       </c>
@@ -46589,7 +46725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>967</v>
       </c>
@@ -46695,7 +46831,7 @@
         <v>64833333.329999998</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>968</v>
       </c>
@@ -46801,7 +46937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>969</v>
       </c>
@@ -46907,7 +47043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>970</v>
       </c>
@@ -47024,17 +47160,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -47058,6 +47205,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -47144,6 +47293,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -47279,30 +47440,49 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36242D0F-E477-4F4C-AB4F-0E396B9F0776}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6FEA4A-37AB-41B5-8166-B183A740E5D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCA25B1-F252-44A8-B2DF-3ADDFCBC6E1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{667CDAB0-6D23-446E-9C1E-B1F97DC9C1E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6FEA4A-37AB-41B5-8166-B183A740E5D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36242D0F-E477-4F4C-AB4F-0E396B9F0776}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
+++ b/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\BNVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A0359AD-0EE0-4B09-9638-73EF691758A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469A7677-B72F-452D-90F3-75E8323F73C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="762" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="915" windowWidth="26250" windowHeight="9585" tabRatio="762" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -47160,23 +47160,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47440,49 +47429,43 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36242D0F-E477-4F4C-AB4F-0E396B9F0776}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{667CDAB0-6D23-446E-9C1E-B1F97DC9C1E6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6FEA4A-37AB-41B5-8166-B183A740E5D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{667CDAB0-6D23-446E-9C1E-B1F97DC9C1E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36242D0F-E477-4F4C-AB4F-0E396B9F0776}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
+++ b/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
@@ -47169,8 +47169,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -47196,6 +47196,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -47296,6 +47297,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -47457,7 +47463,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{667CDAB0-6D23-446E-9C1E-B1F97DC9C1E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EDB6941-2BF1-4DB1-8D9A-4957DC83DDFF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
